--- a/documnets/ファイル構成一覧表_ヨッシーアイランド.xlsx
+++ b/documnets/ファイル構成一覧表_ヨッシーアイランド.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-3\documnets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2C8C98-FAE9-44E4-AD8C-417624622CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D5396E-2F3B-4299-BABE-547AFDA205DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10230" windowHeight="9960" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="1335" yWindow="465" windowWidth="13950" windowHeight="9465" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1013,10 +1013,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:G39"/>
+  <dimension ref="B2:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1301,97 +1301,106 @@
       </c>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="2:7" s="5" customFormat="1">
+    <row r="17" spans="2:10" s="5" customFormat="1">
       <c r="B17" s="4">
         <v>15</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="2:7" s="5" customFormat="1">
+        <v>76</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+    </row>
+    <row r="18" spans="2:10" s="5" customFormat="1">
       <c r="B18" s="4">
         <v>16</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="2:7" s="5" customFormat="1">
+      <c r="C18" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+    </row>
+    <row r="19" spans="2:10" s="5" customFormat="1">
       <c r="B19" s="4">
         <v>17</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="2:7" s="5" customFormat="1">
+      <c r="C19" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+    </row>
+    <row r="20" spans="2:10" s="5" customFormat="1">
       <c r="B20" s="4">
         <v>18</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>24</v>
+      <c r="C20" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="2:7" s="5" customFormat="1">
+    <row r="21" spans="2:10" s="5" customFormat="1">
       <c r="B21" s="4">
         <v>19</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>27</v>
+        <v>8</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="2:7">
+    <row r="22" spans="2:10">
       <c r="B22" s="4">
         <v>20</v>
       </c>
@@ -1401,15 +1410,15 @@
       <c r="D22" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="10" t="s">
-        <v>50</v>
+      <c r="E22" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="2:7">
+    <row r="23" spans="2:10">
       <c r="B23" s="4">
         <v>21</v>
       </c>
@@ -1419,15 +1428,15 @@
       <c r="D23" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>62</v>
+      <c r="E23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="2:7">
+    <row r="24" spans="2:10">
       <c r="B24" s="4">
         <v>22</v>
       </c>
@@ -1437,15 +1446,15 @@
       <c r="D24" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>63</v>
+      <c r="E24" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="2:7">
+    <row r="25" spans="2:10">
       <c r="B25" s="4">
         <v>23</v>
       </c>
@@ -1455,15 +1464,15 @@
       <c r="D25" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>64</v>
+      <c r="E25" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="2:7">
+    <row r="26" spans="2:10">
       <c r="B26" s="4">
         <v>24</v>
       </c>
@@ -1473,15 +1482,15 @@
       <c r="D26" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>73</v>
+      <c r="E26" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="2:7">
+    <row r="27" spans="2:10">
       <c r="B27" s="4">
         <v>25</v>
       </c>
@@ -1492,100 +1501,100 @@
         <v>11</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>65</v>
+        <v>50</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="2:7" s="5" customFormat="1">
+    <row r="28" spans="2:10" s="5" customFormat="1">
       <c r="B28" s="4">
         <v>26</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>76</v>
+        <v>11</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="2:7" s="5" customFormat="1">
+    <row r="29" spans="2:10" s="5" customFormat="1">
       <c r="B29" s="4">
         <v>27</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>30</v>
+      <c r="C29" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="2:7" s="5" customFormat="1">
+    <row r="30" spans="2:10" s="5" customFormat="1">
       <c r="B30" s="4">
         <v>28</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>25</v>
+      <c r="C30" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="2:7" s="5" customFormat="1">
+    <row r="31" spans="2:10" s="5" customFormat="1">
       <c r="B31" s="4">
         <v>29</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>35</v>
+      <c r="C31" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>73</v>
       </c>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="2:7">
+    <row r="32" spans="2:10">
       <c r="B32" s="4">
         <v>30</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>60</v>
+        <v>11</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>65</v>
       </c>
       <c r="G32" s="4"/>
     </row>
@@ -1651,6 +1660,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -1821,15 +1839,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1837,6 +1846,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1851,14 +1868,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/documnets/ファイル構成一覧表_ヨッシーアイランド.xlsx
+++ b/documnets/ファイル構成一覧表_ヨッシーアイランド.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-3\documnets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D5396E-2F3B-4299-BABE-547AFDA205DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94FD91AD-0D3A-4A5C-A383-B70CF8162AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1335" yWindow="465" windowWidth="13950" windowHeight="9465" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -559,7 +559,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -581,12 +581,6 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF1D1C1D"/>
-      <name val="Inherit"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -659,7 +653,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -681,22 +675,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1015,8 +1006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1045,7 +1036,7 @@
       <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1149,7 +1140,7 @@
       <c r="D8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>44</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -1167,7 +1158,7 @@
       <c r="D9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="10" t="s">
         <v>45</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -1185,7 +1176,7 @@
       <c r="D10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="10" t="s">
         <v>47</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -1203,7 +1194,7 @@
       <c r="D11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="11" t="s">
         <v>48</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -1283,20 +1274,20 @@
       </c>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="2:7" s="8" customFormat="1">
+    <row r="16" spans="2:7" s="7" customFormat="1">
       <c r="B16" s="4">
         <v>14</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="9" t="s">
         <v>74</v>
       </c>
       <c r="G16" s="4"/>
@@ -1500,7 +1491,7 @@
       <c r="D27" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="E27" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F27" s="4" t="s">
@@ -1518,7 +1509,7 @@
       <c r="D28" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="9" t="s">
         <v>51</v>
       </c>
       <c r="F28" s="1" t="s">
@@ -1536,7 +1527,7 @@
       <c r="D29" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E29" s="9" t="s">
         <v>52</v>
       </c>
       <c r="F29" s="1" t="s">
@@ -1554,7 +1545,7 @@
       <c r="D30" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E30" s="9" t="s">
         <v>53</v>
       </c>
       <c r="F30" s="1" t="s">
@@ -1572,10 +1563,10 @@
       <c r="D31" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E31" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="F31" s="9" t="s">
         <v>73</v>
       </c>
       <c r="G31" s="4"/>
@@ -1590,10 +1581,10 @@
       <c r="D32" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="E32" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F32" s="10" t="s">
+      <c r="F32" s="9" t="s">
         <v>65</v>
       </c>
       <c r="G32" s="4"/>
@@ -1635,22 +1626,22 @@
       <c r="G34" s="4"/>
     </row>
     <row r="37" spans="2:7">
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
     </row>
     <row r="38" spans="2:7">
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
     </row>
     <row r="39" spans="2:7">
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1660,15 +1651,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -1839,6 +1821,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1846,14 +1837,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1868,6 +1851,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/documnets/ファイル構成一覧表_ヨッシーアイランド.xlsx
+++ b/documnets/ファイル構成一覧表_ヨッシーアイランド.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-3\documnets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94FD91AD-0D3A-4A5C-A383-B70CF8162AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5E3CD0-09E2-4C24-873B-80B7BDA81C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1335" yWindow="465" windowWidth="13950" windowHeight="9465" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="97">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -276,13 +276,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザー画面用css</t>
-    <rPh sb="4" eb="7">
-      <t>ガメンヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>result.java</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -501,16 +494,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>管理者画面用css</t>
-    <rPh sb="0" eb="3">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>ガメンヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">ヘッダー用jsp </t>
     <phoneticPr fontId="1"/>
   </si>
@@ -551,6 +534,159 @@
     </rPh>
     <rPh sb="8" eb="9">
       <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヘッダー、フッター用css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>regist.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>login.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面css</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>toppage.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sindan.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>result.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>admin_login.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>question.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>comment.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>header_footer.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規登録画面css</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップページ画面用css</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>診断ページ画面css</t>
+    <rPh sb="0" eb="2">
+      <t>シンダン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>診断結果ページ用css</t>
+    <rPh sb="7" eb="8">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者用ログイン画面css</t>
+    <rPh sb="0" eb="4">
+      <t>カンリシャヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者用診断項目画面css</t>
+    <rPh sb="0" eb="4">
+      <t>カンリシャヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>シンダンコウモク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者用診断結果画面css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者用コメント画面css</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全体のユーザー画面用css</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ゼンガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全体の管理者画面用css</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ガメンヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -559,7 +695,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -592,9 +728,11 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF1D1C1D"/>
-      <name val="Inherit"/>
-      <family val="2"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -684,10 +822,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1004,13 +1142,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:J39"/>
+  <dimension ref="B2:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
@@ -1020,7 +1158,7 @@
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1040,7 +1178,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:7" s="5" customFormat="1">
+    <row r="3" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B3" s="4">
         <v>1</v>
       </c>
@@ -1051,14 +1189,14 @@
         <v>5</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="2:7" s="5" customFormat="1">
+    <row r="4" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B4" s="4">
         <v>2</v>
       </c>
@@ -1076,7 +1214,7 @@
       </c>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="2:7" s="5" customFormat="1">
+    <row r="5" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B5" s="4">
         <v>3</v>
       </c>
@@ -1087,14 +1225,14 @@
         <v>5</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="2:7" s="5" customFormat="1">
+    <row r="6" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B6" s="4">
         <v>4</v>
       </c>
@@ -1112,7 +1250,7 @@
       </c>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="2:7" s="5" customFormat="1">
+    <row r="7" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B7" s="4">
         <v>5</v>
       </c>
@@ -1130,7 +1268,7 @@
       </c>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" s="4">
         <v>6</v>
       </c>
@@ -1140,15 +1278,15 @@
       <c r="D8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>44</v>
+      <c r="E8" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B9" s="4">
         <v>7</v>
       </c>
@@ -1158,15 +1296,15 @@
       <c r="D9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>45</v>
+      <c r="E9" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B10" s="4">
         <v>8</v>
       </c>
@@ -1176,15 +1314,15 @@
       <c r="D10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>47</v>
+      <c r="E10" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B11" s="4">
         <v>9</v>
       </c>
@@ -1194,15 +1332,15 @@
       <c r="D11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="11" t="s">
-        <v>48</v>
+      <c r="E11" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="2:7" s="5" customFormat="1">
+    <row r="12" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B12" s="4">
         <v>10</v>
       </c>
@@ -1212,15 +1350,15 @@
       <c r="D12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>67</v>
+      <c r="E12" s="11" t="s">
+        <v>66</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="2:7" s="5" customFormat="1">
+    <row r="13" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B13" s="4">
         <v>11</v>
       </c>
@@ -1230,15 +1368,15 @@
       <c r="D13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>38</v>
+      <c r="E13" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="2:7" s="5" customFormat="1">
+    <row r="14" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B14" s="4">
         <v>12</v>
       </c>
@@ -1248,15 +1386,15 @@
       <c r="D14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>39</v>
+      <c r="E14" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="2:7" s="5" customFormat="1">
+    <row r="15" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B15" s="4">
         <v>13</v>
       </c>
@@ -1266,15 +1404,15 @@
       <c r="D15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>40</v>
+      <c r="E15" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="2:7" s="7" customFormat="1">
+    <row r="16" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B16" s="4">
         <v>14</v>
       </c>
@@ -1285,14 +1423,14 @@
         <v>9</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="2:10" s="5" customFormat="1">
+    <row r="17" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B17" s="4">
         <v>15</v>
       </c>
@@ -1303,17 +1441,17 @@
         <v>8</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17"/>
       <c r="I17"/>
       <c r="J17"/>
     </row>
-    <row r="18" spans="2:10" s="5" customFormat="1">
+    <row r="18" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B18" s="4">
         <v>16</v>
       </c>
@@ -1334,7 +1472,7 @@
       <c r="I18"/>
       <c r="J18"/>
     </row>
-    <row r="19" spans="2:10" s="5" customFormat="1">
+    <row r="19" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B19" s="4">
         <v>17</v>
       </c>
@@ -1355,7 +1493,7 @@
       <c r="I19"/>
       <c r="J19"/>
     </row>
-    <row r="20" spans="2:10" s="5" customFormat="1">
+    <row r="20" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B20" s="4">
         <v>18</v>
       </c>
@@ -1373,7 +1511,7 @@
       </c>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="2:10" s="5" customFormat="1">
+    <row r="21" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B21" s="4">
         <v>19</v>
       </c>
@@ -1384,14 +1522,14 @@
         <v>8</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B22" s="4">
         <v>20</v>
       </c>
@@ -1409,7 +1547,7 @@
       </c>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B23" s="4">
         <v>21</v>
       </c>
@@ -1427,7 +1565,7 @@
       </c>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B24" s="4">
         <v>22</v>
       </c>
@@ -1438,14 +1576,14 @@
         <v>11</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B25" s="4">
         <v>23</v>
       </c>
@@ -1463,7 +1601,7 @@
       </c>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B26" s="4">
         <v>24</v>
       </c>
@@ -1481,7 +1619,7 @@
       </c>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B27" s="4">
         <v>25</v>
       </c>
@@ -1492,14 +1630,14 @@
         <v>11</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="2:10" s="5" customFormat="1">
+    <row r="28" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B28" s="4">
         <v>26</v>
       </c>
@@ -1510,14 +1648,14 @@
         <v>11</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="2:10" s="5" customFormat="1">
+    <row r="29" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B29" s="4">
         <v>27</v>
       </c>
@@ -1528,14 +1666,14 @@
         <v>11</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="2:10" s="5" customFormat="1">
+    <row r="30" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B30" s="4">
         <v>28</v>
       </c>
@@ -1546,14 +1684,14 @@
         <v>11</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="2:10" s="5" customFormat="1">
+    <row r="31" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B31" s="4">
         <v>29</v>
       </c>
@@ -1564,14 +1702,14 @@
         <v>11</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B32" s="4">
         <v>30</v>
       </c>
@@ -1582,14 +1720,14 @@
         <v>11</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="2:7">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B33" s="4">
         <v>31</v>
       </c>
@@ -1599,15 +1737,15 @@
       <c r="D33" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="2:7">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B34" s="4">
         <v>32</v>
       </c>
@@ -1617,31 +1755,193 @@
       <c r="D34" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>71</v>
+      <c r="E34" s="11" t="s">
+        <v>70</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="G34" s="4"/>
     </row>
-    <row r="37" spans="2:7">
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-    </row>
-    <row r="38" spans="2:7">
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-    </row>
-    <row r="39" spans="2:7">
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B35" s="4">
+        <v>33</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B36" s="4">
+        <v>34</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B37" s="4">
+        <v>35</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B38" s="4">
+        <v>36</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B39" s="4">
+        <v>37</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G39" s="4"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B40" s="4">
+        <v>38</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G40" s="4"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B41" s="4">
+        <v>39</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G41" s="4"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B42" s="4">
+        <v>40</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G42" s="4"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B43" s="4">
+        <v>41</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G43" s="4"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B44" s="4">
+        <v>42</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G44" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1651,6 +1951,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -1821,15 +2130,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1837,6 +2137,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1851,14 +2159,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/documnets/ファイル構成一覧表_ヨッシーアイランド.xlsx
+++ b/documnets/ファイル構成一覧表_ヨッシーアイランド.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-3\documnets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5E3CD0-09E2-4C24-873B-80B7BDA81C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BDB4D36-F001-440B-AFB2-D7EEA913CEB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1335" yWindow="465" windowWidth="13950" windowHeight="9465" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="1950" yWindow="1500" windowWidth="13950" windowHeight="9465" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="103">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -101,10 +101,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>login.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ログイン画面jsp</t>
     <rPh sb="4" eb="6">
       <t>ガメン</t>
@@ -124,10 +120,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>regist.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>新規登録画面jsp</t>
     <rPh sb="0" eb="2">
       <t>シンキ</t>
@@ -164,10 +156,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>SindanServlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>診断ページ用</t>
     <rPh sb="0" eb="2">
       <t>シンダン</t>
@@ -178,10 +166,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>sindan.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>診断ページ画面jsp</t>
     <rPh sb="0" eb="2">
       <t>シンダン</t>
@@ -222,10 +206,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ResultServlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>result.jsp</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -246,22 +226,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ResultDao.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>QuestionDao.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RegistServlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CommentDao.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>コメント関連のデータアクセス用DAO</t>
     <rPh sb="4" eb="6">
       <t>カンレン</t>
@@ -324,16 +288,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">admin_loginServlet.java </t>
-  </si>
-  <si>
     <t xml:space="preserve">admin_TopPageServlet.java  </t>
   </si>
   <si>
-    <t>ToppageServlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">admin_LastDataServlet.java  </t>
     <phoneticPr fontId="1"/>
   </si>
@@ -351,9 +308,6 @@
   <si>
     <t>question.jsp</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>result.jsp</t>
   </si>
   <si>
     <t>comment.jsp</t>
@@ -375,22 +329,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>管理者用の過去のデータページ画面</t>
-    <rPh sb="0" eb="3">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>カコ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>管理者用トップページ画面</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -425,60 +363,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>管理者用診断項目画面jsp</t>
-    <rPh sb="0" eb="4">
-      <t>カンリシャヨウ</t>
-    </rPh>
-    <rPh sb="4" eb="8">
-      <t>シンダンコウモク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>管理者用診断結果画面jsp</t>
-    <rPh sb="0" eb="4">
-      <t>カンリシャヨウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シンダン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>管理者用コメント画面jsp</t>
-    <rPh sb="0" eb="3">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">フッター用jsp </t>
   </si>
   <si>
-    <t>toppage.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>user_login.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>user_loginServlet.java</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -648,23 +536,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>管理者用診断結果画面css</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>管理者用コメント画面css</t>
-    <rPh sb="0" eb="3">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>全体のユーザー画面用css</t>
     <rPh sb="0" eb="2">
       <t>ゼンタイ</t>
@@ -687,6 +558,163 @@
     </rPh>
     <rPh sb="6" eb="9">
       <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>resultDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>questionDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>commentDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_login.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_regist.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_toppage.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_sindan.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>User_LoginServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>User_RegistServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>User_TopPageServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>User_SindanServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>User_ResultServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin_LoginServlet.java </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>admin_LastData.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者用の過去のデータページ</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者用閲覧ページjsp</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>エツラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者用閲覧ページcss</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>エツラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者用の過去のデータページjsp</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者用の過去のデータページcss</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者用トップページjsp</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>星</t>
+  </si>
+  <si>
+    <t>星</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>安藤</t>
+    <rPh sb="0" eb="2">
+      <t>アンドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鈴木</t>
+    <rPh sb="0" eb="2">
+      <t>スズキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小川</t>
+    <rPh sb="0" eb="2">
+      <t>オガワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三浦</t>
+    <rPh sb="0" eb="2">
+      <t>ミウラ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1144,8 +1172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="C14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1189,7 +1217,7 @@
         <v>5</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>10</v>
@@ -1207,10 +1235,10 @@
         <v>5</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G4" s="4"/>
     </row>
@@ -1225,10 +1253,10 @@
         <v>5</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G5" s="4"/>
     </row>
@@ -1243,10 +1271,10 @@
         <v>5</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G6" s="4"/>
     </row>
@@ -1261,10 +1289,10 @@
         <v>5</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G7" s="4"/>
     </row>
@@ -1279,10 +1307,10 @@
         <v>5</v>
       </c>
       <c r="E8" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="G8" s="4"/>
     </row>
@@ -1297,10 +1325,10 @@
         <v>5</v>
       </c>
       <c r="E9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="G9" s="4"/>
     </row>
@@ -1315,10 +1343,10 @@
         <v>5</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="G10" s="4"/>
     </row>
@@ -1333,10 +1361,10 @@
         <v>5</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="G11" s="4"/>
     </row>
@@ -1351,10 +1379,10 @@
         <v>9</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="G12" s="4"/>
     </row>
@@ -1369,10 +1397,10 @@
         <v>9</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G13" s="4"/>
     </row>
@@ -1387,10 +1415,10 @@
         <v>9</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G14" s="4"/>
     </row>
@@ -1405,10 +1433,10 @@
         <v>9</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G15" s="4"/>
     </row>
@@ -1423,10 +1451,10 @@
         <v>9</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="G16" s="4"/>
     </row>
@@ -1441,10 +1469,10 @@
         <v>8</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17"/>
@@ -1462,10 +1490,10 @@
         <v>8</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18"/>
@@ -1483,10 +1511,10 @@
         <v>8</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19"/>
@@ -1504,10 +1532,10 @@
         <v>8</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="G20" s="4"/>
     </row>
@@ -1522,10 +1550,10 @@
         <v>8</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="G21" s="4"/>
     </row>
@@ -1534,214 +1562,236 @@
         <v>20</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E22" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="4"/>
+      <c r="G22" s="4" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B23" s="4">
         <v>21</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B24" s="4">
         <v>22</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G24" s="4"/>
+        <v>57</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B25" s="4">
         <v>23</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G25" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B26" s="4">
         <v>24</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G26" s="4"/>
+        <v>23</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B27" s="4">
         <v>25</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G27" s="4"/>
+        <v>47</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="28" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B28" s="4">
         <v>26</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G28" s="4"/>
+        <v>96</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="29" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B29" s="4">
         <v>27</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G29" s="4"/>
+        <v>94</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="30" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B30" s="4">
         <v>28</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G30" s="4"/>
+        <v>92</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="31" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B31" s="4">
         <v>29</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E31" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F31" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="G31" s="4"/>
+      <c r="G31" s="4" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B32" s="4">
         <v>30</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="G32" s="4"/>
+        <v>48</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B33" s="4">
         <v>31</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="G33" s="4"/>
     </row>
@@ -1750,16 +1800,16 @@
         <v>32</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="G34" s="4"/>
     </row>
@@ -1768,180 +1818,200 @@
         <v>33</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G35" s="4"/>
+        <v>61</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B36" s="4">
         <v>34</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G36" s="4"/>
+        <v>69</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B37" s="4">
         <v>35</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G37" s="4"/>
+        <v>70</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B38" s="4">
         <v>36</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G38" s="4"/>
+        <v>71</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B39" s="4">
         <v>37</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G39" s="4"/>
+        <v>72</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B40" s="4">
         <v>38</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G40" s="4"/>
+        <v>73</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B41" s="4">
         <v>39</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G41" s="4"/>
+        <v>74</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B42" s="4">
         <v>40</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G42" s="4"/>
+        <v>95</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B43" s="4">
         <v>41</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G43" s="4"/>
+        <v>93</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B44" s="4">
         <v>42</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G44" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1951,15 +2021,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -2130,6 +2191,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2137,14 +2207,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2159,6 +2221,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/documnets/ファイル構成一覧表_ヨッシーアイランド.xlsx
+++ b/documnets/ファイル構成一覧表_ヨッシーアイランド.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-3\documnets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BDB4D36-F001-440B-AFB2-D7EEA913CEB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90397FEF-AB18-4B35-9050-CD63206667BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1500" windowWidth="13950" windowHeight="9465" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="104">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -206,10 +206,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>result.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>診断結果関連のデータアクセス用DAO</t>
     <rPh sb="0" eb="2">
       <t>シンダン</t>
@@ -288,29 +284,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">admin_TopPageServlet.java  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">admin_LastDataServlet.java  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>admin_ViewServlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>admin_loginDao.java</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>admin_login.jsp</t>
-  </si>
-  <si>
-    <t>question.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>comment.jsp</t>
   </si>
   <si>
     <t>header.jsp</t>
@@ -430,14 +408,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>regist.css</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>login.css</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ログイン画面css</t>
     <rPh sb="4" eb="6">
       <t>ガメン</t>
@@ -445,27 +415,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>toppage.css</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>sindan.css</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>result.css</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>admin_login.css</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>question.css</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>comment.css</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -614,10 +564,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>admin_LastData.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>管理者用の過去のデータページ</t>
     <rPh sb="0" eb="3">
       <t>カンリシャ</t>
@@ -716,6 +662,66 @@
     <rPh sb="0" eb="2">
       <t>ミウラ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin_TopPageServlet.java  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin_LastDataServlet.java  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Admin_ViewServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_result.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>admin_toppage.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>admin_lastdata.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>admin_view.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_login.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_regist.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_toppage.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_sindan.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_result.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>admin_toppage.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>admin_lastdata.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>admin_view.css</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1172,8 +1178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="C21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1217,7 +1223,7 @@
         <v>5</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>10</v>
@@ -1235,7 +1241,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>17</v>
@@ -1253,7 +1259,7 @@
         <v>5</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>18</v>
@@ -1271,7 +1277,7 @@
         <v>5</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>19</v>
@@ -1289,7 +1295,7 @@
         <v>5</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>22</v>
@@ -1307,10 +1313,10 @@
         <v>5</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G8" s="4"/>
     </row>
@@ -1325,10 +1331,10 @@
         <v>5</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G9" s="4"/>
     </row>
@@ -1343,10 +1349,10 @@
         <v>5</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="G10" s="4"/>
     </row>
@@ -1361,10 +1367,10 @@
         <v>5</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G11" s="4"/>
     </row>
@@ -1379,10 +1385,10 @@
         <v>9</v>
       </c>
       <c r="E12" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="G12" s="4"/>
     </row>
@@ -1397,10 +1403,10 @@
         <v>9</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G13" s="4"/>
     </row>
@@ -1415,10 +1421,10 @@
         <v>9</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G14" s="4"/>
     </row>
@@ -1433,10 +1439,10 @@
         <v>9</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G15" s="4"/>
     </row>
@@ -1451,10 +1457,10 @@
         <v>9</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G16" s="4"/>
     </row>
@@ -1469,10 +1475,10 @@
         <v>8</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17"/>
@@ -1490,10 +1496,10 @@
         <v>8</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18"/>
@@ -1511,7 +1517,7 @@
         <v>8</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>21</v>
@@ -1532,10 +1538,10 @@
         <v>8</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G20" s="4"/>
     </row>
@@ -1550,10 +1556,10 @@
         <v>8</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G21" s="4"/>
     </row>
@@ -1568,13 +1574,13 @@
         <v>11</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.4">
@@ -1588,13 +1594,13 @@
         <v>11</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.4">
@@ -1608,13 +1614,13 @@
         <v>11</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.4">
@@ -1628,13 +1634,13 @@
         <v>11</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.4">
@@ -1648,13 +1654,13 @@
         <v>11</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.4">
@@ -1668,13 +1674,13 @@
         <v>11</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
@@ -1688,13 +1694,13 @@
         <v>11</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
@@ -1708,13 +1714,13 @@
         <v>11</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
@@ -1728,13 +1734,13 @@
         <v>11</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
@@ -1748,13 +1754,13 @@
         <v>11</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.4">
@@ -1768,13 +1774,13 @@
         <v>11</v>
       </c>
       <c r="E32" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F32" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F32" s="9" t="s">
-        <v>48</v>
-      </c>
       <c r="G32" s="4" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.4">
@@ -1788,10 +1794,10 @@
         <v>13</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="G33" s="4"/>
     </row>
@@ -1806,10 +1812,10 @@
         <v>13</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="G34" s="4"/>
     </row>
@@ -1824,13 +1830,13 @@
         <v>13</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.4">
@@ -1844,13 +1850,13 @@
         <v>13</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.4">
@@ -1864,13 +1870,13 @@
         <v>13</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.4">
@@ -1884,13 +1890,13 @@
         <v>13</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.4">
@@ -1904,13 +1910,13 @@
         <v>13</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.4">
@@ -1924,13 +1930,13 @@
         <v>13</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.4">
@@ -1944,13 +1950,13 @@
         <v>13</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.4">
@@ -1964,13 +1970,13 @@
         <v>13</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.4">
@@ -1984,13 +1990,13 @@
         <v>13</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.4">
@@ -2004,13 +2010,13 @@
         <v>13</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2021,6 +2027,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -2191,15 +2206,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2207,6 +2213,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2221,14 +2235,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/documnets/ファイル構成一覧表_ヨッシーアイランド.xlsx
+++ b/documnets/ファイル構成一覧表_ヨッシーアイランド.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-3\documnets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90397FEF-AB18-4B35-9050-CD63206667BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9953F054-4DE7-4DD0-8A99-F2F28F046368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView minimized="1" xWindow="1860" yWindow="915" windowWidth="14250" windowHeight="10080" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -176,16 +176,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>診断項目関連のデータアクセス用DAO</t>
-    <rPh sb="0" eb="6">
-      <t>シンダンコウモクカンレン</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>診断結果ページ用</t>
     <rPh sb="0" eb="2">
       <t>シンダン</t>
@@ -222,29 +212,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>コメント関連のデータアクセス用DAO</t>
-    <rPh sb="4" eb="6">
-      <t>カンレン</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>user.css</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>result.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>question.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>comment.java</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -261,29 +229,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>診断項目関連のデータ操作モデル</t>
-    <rPh sb="0" eb="4">
-      <t>シンダンコウモク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カンレン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ソウサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コメント関連のデータ操作モデル</t>
-    <rPh sb="4" eb="6">
-      <t>カンレン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ソウサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>admin_loginDao.java</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -512,18 +457,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>resultDao.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>questionDao.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>commentDao.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>user_login.jsp</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -722,6 +655,79 @@
   </si>
   <si>
     <t>admin_view.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>s_result.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>s_answer.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>s_question.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問関連のデータ操作モデル</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回答関連のデータ操作モデル</t>
+    <rPh sb="2" eb="4">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>s_resultDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>s_answerDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>s_questionDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回答関連のデータアクセス用DAO</t>
+    <rPh sb="0" eb="2">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問関連のデータアクセス用DAO</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヨウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1178,8 +1184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1223,7 +1229,7 @@
         <v>5</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>10</v>
@@ -1241,7 +1247,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>17</v>
@@ -1259,7 +1265,7 @@
         <v>5</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>18</v>
@@ -1277,7 +1283,7 @@
         <v>5</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>19</v>
@@ -1295,10 +1301,10 @@
         <v>5</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G7" s="4"/>
     </row>
@@ -1313,10 +1319,10 @@
         <v>5</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G8" s="4"/>
     </row>
@@ -1331,10 +1337,10 @@
         <v>5</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G9" s="4"/>
     </row>
@@ -1349,10 +1355,10 @@
         <v>5</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="G10" s="4"/>
     </row>
@@ -1367,10 +1373,10 @@
         <v>5</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G11" s="4"/>
     </row>
@@ -1385,10 +1391,10 @@
         <v>9</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G12" s="4"/>
     </row>
@@ -1403,10 +1409,10 @@
         <v>9</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G13" s="4"/>
     </row>
@@ -1421,10 +1427,10 @@
         <v>9</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="G14" s="4"/>
     </row>
@@ -1439,10 +1445,10 @@
         <v>9</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="G15" s="4"/>
     </row>
@@ -1457,10 +1463,10 @@
         <v>9</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G16" s="4"/>
     </row>
@@ -1475,10 +1481,10 @@
         <v>8</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17"/>
@@ -1496,10 +1502,10 @@
         <v>8</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18"/>
@@ -1517,10 +1523,10 @@
         <v>8</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19"/>
@@ -1538,10 +1544,10 @@
         <v>8</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="G20" s="4"/>
     </row>
@@ -1556,10 +1562,10 @@
         <v>8</v>
       </c>
       <c r="E21" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="G21" s="4"/>
     </row>
@@ -1574,13 +1580,13 @@
         <v>11</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.4">
@@ -1594,13 +1600,13 @@
         <v>11</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.4">
@@ -1614,13 +1620,13 @@
         <v>11</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.4">
@@ -1634,13 +1640,13 @@
         <v>11</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.4">
@@ -1654,13 +1660,13 @@
         <v>11</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.4">
@@ -1674,13 +1680,13 @@
         <v>11</v>
       </c>
       <c r="E27" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F27" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="G27" s="4" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
@@ -1694,13 +1700,13 @@
         <v>11</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
@@ -1714,13 +1720,13 @@
         <v>11</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
@@ -1734,13 +1740,13 @@
         <v>11</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
@@ -1754,13 +1760,13 @@
         <v>11</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.4">
@@ -1774,13 +1780,13 @@
         <v>11</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.4">
@@ -1794,10 +1800,10 @@
         <v>13</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="G33" s="4"/>
     </row>
@@ -1812,10 +1818,10 @@
         <v>13</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="G34" s="4"/>
     </row>
@@ -1830,13 +1836,13 @@
         <v>13</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.4">
@@ -1850,13 +1856,13 @@
         <v>13</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.4">
@@ -1870,13 +1876,13 @@
         <v>13</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.4">
@@ -1890,13 +1896,13 @@
         <v>13</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.4">
@@ -1910,13 +1916,13 @@
         <v>13</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.4">
@@ -1930,13 +1936,13 @@
         <v>13</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.4">
@@ -1950,13 +1956,13 @@
         <v>13</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.4">
@@ -1970,13 +1976,13 @@
         <v>13</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.4">
@@ -1990,13 +1996,13 @@
         <v>13</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.4">
@@ -2010,13 +2016,13 @@
         <v>13</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2027,15 +2033,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -2206,6 +2203,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2213,14 +2219,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2235,6 +2233,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/documnets/ファイル構成一覧表_ヨッシーアイランド.xlsx
+++ b/documnets/ファイル構成一覧表_ヨッシーアイランド.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-3\documnets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9953F054-4DE7-4DD0-8A99-F2F28F046368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB4E297-5A47-44D5-B076-7ECED06C278A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView minimized="1" xWindow="1860" yWindow="915" windowWidth="14250" windowHeight="10080" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>

--- a/documnets/ファイル構成一覧表_ヨッシーアイランド.xlsx
+++ b/documnets/ファイル構成一覧表_ヨッシーアイランド.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-3\documnets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB4E297-5A47-44D5-B076-7ECED06C278A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E617D4-7301-430B-8186-40196C066FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1860" yWindow="915" windowWidth="14250" windowHeight="10080" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="106">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -727,6 +727,20 @@
     </rPh>
     <rPh sb="12" eb="13">
       <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小川</t>
+    <rPh sb="0" eb="2">
+      <t>オガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>安藤</t>
+    <rPh sb="0" eb="2">
+      <t>アン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1184,8 +1198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1396,7 +1410,9 @@
       <c r="F12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="4"/>
+      <c r="G12" s="1" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="13" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B13" s="4">
@@ -1414,7 +1430,9 @@
       <c r="F13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="4"/>
+      <c r="G13" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="14" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B14" s="4">
@@ -1432,7 +1450,9 @@
       <c r="F14" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G14" s="4"/>
+      <c r="G14" s="4" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="15" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B15" s="4">
@@ -1450,7 +1470,9 @@
       <c r="F15" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G15" s="4"/>
+      <c r="G15" s="4" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="16" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B16" s="4">
@@ -1468,7 +1490,9 @@
       <c r="F16" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="4"/>
+      <c r="G16" s="4" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="17" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B17" s="4">
@@ -1486,7 +1510,9 @@
       <c r="F17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="H17"/>
       <c r="I17"/>
       <c r="J17"/>
@@ -1507,7 +1533,9 @@
       <c r="F18" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="1"/>
+      <c r="G18" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="H18"/>
       <c r="I18"/>
       <c r="J18"/>
@@ -1528,7 +1556,9 @@
       <c r="F19" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="G19" s="1"/>
+      <c r="G19" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="H19"/>
       <c r="I19"/>
       <c r="J19"/>
@@ -1549,7 +1579,9 @@
       <c r="F20" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="G20" s="4"/>
+      <c r="G20" s="4" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="21" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B21" s="4">
@@ -1567,7 +1599,9 @@
       <c r="F21" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G21" s="4"/>
+      <c r="G21" s="4" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B22" s="4">
@@ -2033,6 +2067,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -2203,15 +2246,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2219,6 +2253,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2233,14 +2275,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/documnets/ファイル構成一覧表_ヨッシーアイランド.xlsx
+++ b/documnets/ファイル構成一覧表_ヨッシーアイランド.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-3\documnets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E617D4-7301-430B-8186-40196C066FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C00F5E89-4599-44CC-B723-784FAD2CBEB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="765" yWindow="570" windowWidth="14250" windowHeight="9645" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1198,8 +1198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19:G21"/>
+    <sheetView tabSelected="1" topLeftCell="D10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/documnets/ファイル構成一覧表_ヨッシーアイランド.xlsx
+++ b/documnets/ファイル構成一覧表_ヨッシーアイランド.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-3\documnets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C00F5E89-4599-44CC-B723-784FAD2CBEB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89AE06C-8056-4E1E-8E2E-D9F25D136021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="765" yWindow="570" windowWidth="14250" windowHeight="9645" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1198,8 +1198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="D8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2067,12 +2067,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2247,15 +2244,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2280,18 +2289,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documnets/ファイル構成一覧表_ヨッシーアイランド.xlsx
+++ b/documnets/ファイル構成一覧表_ヨッシーアイランド.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-3\documnets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89AE06C-8056-4E1E-8E2E-D9F25D136021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2242552A-8D3B-4149-91E8-DD55EB7FE148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="1170" yWindow="450" windowWidth="14250" windowHeight="9645" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="108">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -741,6 +741,23 @@
     <t>安藤</t>
     <rPh sb="0" eb="2">
       <t>アン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_registDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー登録関連のデータアクセス用DAO</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1196,10 +1213,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:J44"/>
+  <dimension ref="B2:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="C16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1494,7 +1511,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B17" s="4">
         <v>15</v>
       </c>
@@ -1505,36 +1522,33 @@
         <v>8</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H17"/>
-      <c r="I17"/>
-      <c r="J17"/>
     </row>
     <row r="18" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B18" s="4">
         <v>16</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>23</v>
+      <c r="E18" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H18"/>
       <c r="I18"/>
@@ -1551,13 +1565,13 @@
         <v>8</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>76</v>
+        <v>23</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="H19"/>
       <c r="I19"/>
@@ -1574,53 +1588,56 @@
         <v>8</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>104</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
     </row>
     <row r="21" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B21" s="4">
         <v>19</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B22" s="4">
         <v>20</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.4">
@@ -1634,10 +1651,10 @@
         <v>11</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>78</v>
@@ -1654,13 +1671,13 @@
         <v>11</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.4">
@@ -1674,13 +1691,13 @@
         <v>11</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.4">
@@ -1694,13 +1711,13 @@
         <v>11</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.4">
@@ -1713,17 +1730,17 @@
       <c r="D27" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="9" t="s">
-        <v>27</v>
+      <c r="E27" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B28" s="4">
         <v>26</v>
       </c>
@@ -1734,13 +1751,13 @@
         <v>11</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>72</v>
+        <v>27</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
@@ -1754,13 +1771,13 @@
         <v>11</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
@@ -1774,13 +1791,13 @@
         <v>11</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
@@ -1794,16 +1811,16 @@
         <v>11</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>40</v>
+        <v>85</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B32" s="4">
         <v>30</v>
       </c>
@@ -1814,10 +1831,10 @@
         <v>11</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>76</v>
@@ -1827,19 +1844,21 @@
       <c r="B33" s="4">
         <v>31</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G33" s="4"/>
+      <c r="C33" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B34" s="4">
@@ -1852,10 +1871,10 @@
         <v>13</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G34" s="4"/>
     </row>
@@ -1869,15 +1888,13 @@
       <c r="D35" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>78</v>
-      </c>
+      <c r="E35" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G35" s="4"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B36" s="4">
@@ -1890,10 +1907,10 @@
         <v>13</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>78</v>
@@ -1910,13 +1927,13 @@
         <v>13</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.4">
@@ -1930,13 +1947,13 @@
         <v>13</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.4">
@@ -1950,13 +1967,13 @@
         <v>13</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.4">
@@ -1969,14 +1986,14 @@
       <c r="D40" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E40" s="9" t="s">
-        <v>47</v>
+      <c r="E40" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.4">
@@ -1990,13 +2007,13 @@
         <v>13</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.4">
@@ -2010,13 +2027,13 @@
         <v>13</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.4">
@@ -2030,13 +2047,13 @@
         <v>13</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.4">
@@ -2050,12 +2067,32 @@
         <v>13</v>
       </c>
       <c r="E44" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B45" s="4">
+        <v>43</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F44" s="9" t="s">
+      <c r="F45" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="G44" s="4" t="s">
+      <c r="G45" s="4" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2067,9 +2104,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2244,27 +2284,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2289,9 +2317,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documnets/ファイル構成一覧表_ヨッシーアイランド.xlsx
+++ b/documnets/ファイル構成一覧表_ヨッシーアイランド.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-3\documnets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2242552A-8D3B-4149-91E8-DD55EB7FE148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FED1369-2EE9-40A6-9CDF-C9185C14BE09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="450" windowWidth="14250" windowHeight="9645" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="108">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -87,16 +87,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ログイン画面用</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>WebContent/WEB-INF/jsp</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -757,6 +747,22 @@
       <t>カンレン</t>
     </rPh>
     <rPh sb="16" eb="17">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受講者用ログイン画面用</t>
+    <rPh sb="0" eb="3">
+      <t>ジュコウシャ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
       <t>ヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -1215,8 +1221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1260,12 +1266,14 @@
         <v>5</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="4"/>
+        <v>107</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="4" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B4" s="4">
@@ -1278,12 +1286,14 @@
         <v>5</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="5" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B5" s="4">
@@ -1296,12 +1306,14 @@
         <v>5</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="6" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B6" s="4">
@@ -1314,12 +1326,14 @@
         <v>5</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="7" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B7" s="4">
@@ -1332,12 +1346,14 @@
         <v>5</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" s="4">
@@ -1350,10 +1366,10 @@
         <v>5</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G8" s="4"/>
     </row>
@@ -1368,10 +1384,10 @@
         <v>5</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G9" s="4"/>
     </row>
@@ -1386,10 +1402,10 @@
         <v>5</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G10" s="4"/>
     </row>
@@ -1404,10 +1420,10 @@
         <v>5</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G11" s="4"/>
     </row>
@@ -1422,13 +1438,13 @@
         <v>9</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.4">
@@ -1442,13 +1458,13 @@
         <v>9</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.4">
@@ -1462,13 +1478,13 @@
         <v>9</v>
       </c>
       <c r="E14" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="G14" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.4">
@@ -1482,13 +1498,13 @@
         <v>9</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
@@ -1502,13 +1518,13 @@
         <v>9</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.4">
@@ -1522,13 +1538,13 @@
         <v>8</v>
       </c>
       <c r="E17" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>107</v>
-      </c>
       <c r="G17" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
@@ -1542,13 +1558,13 @@
         <v>8</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H18"/>
       <c r="I18"/>
@@ -1565,13 +1581,13 @@
         <v>8</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H19"/>
       <c r="I19"/>
@@ -1588,13 +1604,13 @@
         <v>8</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H20"/>
       <c r="I20"/>
@@ -1611,13 +1627,13 @@
         <v>8</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
@@ -1631,13 +1647,13 @@
         <v>8</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.4">
@@ -1645,19 +1661,19 @@
         <v>21</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="G23" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.4">
@@ -1665,19 +1681,19 @@
         <v>22</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.4">
@@ -1685,19 +1701,19 @@
         <v>23</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.4">
@@ -1705,19 +1721,19 @@
         <v>24</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.4">
@@ -1725,19 +1741,19 @@
         <v>25</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.4">
@@ -1745,19 +1761,19 @@
         <v>26</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
@@ -1765,19 +1781,19 @@
         <v>27</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F29" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G29" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="30" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
@@ -1785,19 +1801,19 @@
         <v>28</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
@@ -1805,19 +1821,19 @@
         <v>29</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
@@ -1825,19 +1841,19 @@
         <v>30</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.4">
@@ -1845,19 +1861,19 @@
         <v>31</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.4">
@@ -1865,16 +1881,16 @@
         <v>32</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G34" s="4"/>
     </row>
@@ -1883,16 +1899,16 @@
         <v>33</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G35" s="4"/>
     </row>
@@ -1901,19 +1917,19 @@
         <v>34</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.4">
@@ -1921,19 +1937,19 @@
         <v>35</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.4">
@@ -1941,19 +1957,19 @@
         <v>36</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.4">
@@ -1961,19 +1977,19 @@
         <v>37</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.4">
@@ -1981,19 +1997,19 @@
         <v>38</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.4">
@@ -2001,19 +2017,19 @@
         <v>39</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.4">
@@ -2021,19 +2037,19 @@
         <v>40</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.4">
@@ -2041,19 +2057,19 @@
         <v>41</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.4">
@@ -2061,19 +2077,19 @@
         <v>42</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.4">
@@ -2081,19 +2097,19 @@
         <v>43</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2104,15 +2120,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -2283,6 +2290,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2290,14 +2306,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2312,6 +2320,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/documnets/ファイル構成一覧表_ヨッシーアイランド.xlsx
+++ b/documnets/ファイル構成一覧表_ヨッシーアイランド.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-3\documnets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FED1369-2EE9-40A6-9CDF-C9185C14BE09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD66501D-4D0A-4840-9790-82179886DDEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -1221,8 +1221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2120,6 +2120,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -2290,15 +2299,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2306,6 +2306,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2320,14 +2328,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/documnets/ファイル構成一覧表_ヨッシーアイランド.xlsx
+++ b/documnets/ファイル構成一覧表_ヨッシーアイランド.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-3\documnets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD66501D-4D0A-4840-9790-82179886DDEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C119C296-2122-43D9-B26A-13A0496A3056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="109">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -764,6 +764,13 @@
     </rPh>
     <rPh sb="10" eb="11">
       <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進捗</t>
+    <rPh sb="0" eb="2">
+      <t>シンチョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -868,7 +875,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -903,6 +910,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1219,10 +1232,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:J45"/>
+  <dimension ref="B2:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1235,7 +1248,7 @@
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1254,8 +1267,11 @@
       <c r="G2" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H2" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B3" s="4">
         <v>1</v>
       </c>
@@ -1274,8 +1290,9 @@
       <c r="G3" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B4" s="4">
         <v>2</v>
       </c>
@@ -1294,8 +1311,9 @@
       <c r="G4" s="4" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B5" s="4">
         <v>3</v>
       </c>
@@ -1314,8 +1332,9 @@
       <c r="G5" s="4" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B6" s="4">
         <v>4</v>
       </c>
@@ -1334,8 +1353,9 @@
       <c r="G6" s="4" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B7" s="4">
         <v>5</v>
       </c>
@@ -1354,8 +1374,9 @@
       <c r="G7" s="4" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B8" s="4">
         <v>6</v>
       </c>
@@ -1372,8 +1393,9 @@
         <v>29</v>
       </c>
       <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B9" s="4">
         <v>7</v>
       </c>
@@ -1390,8 +1412,9 @@
         <v>30</v>
       </c>
       <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B10" s="4">
         <v>8</v>
       </c>
@@ -1408,8 +1431,9 @@
         <v>66</v>
       </c>
       <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B11" s="4">
         <v>9</v>
       </c>
@@ -1426,30 +1450,20 @@
         <v>31</v>
       </c>
       <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="4">
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="4">
         <v>10</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="4">
-        <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>2</v>
@@ -1458,18 +1472,19 @@
         <v>9</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>93</v>
+        <v>35</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.4">
+        <v>77</v>
+      </c>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B14" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>2</v>
@@ -1478,18 +1493,19 @@
         <v>9</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.4">
+        <v>24</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B15" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>2</v>
@@ -1498,127 +1514,118 @@
         <v>9</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+        <v>75</v>
+      </c>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B16" s="4">
-        <v>14</v>
-      </c>
-      <c r="C16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>40</v>
+      <c r="E16" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>104</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="H16" s="4"/>
     </row>
     <row r="17" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B17" s="4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="D17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H17" s="1"/>
     </row>
     <row r="18" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="4">
-        <v>16</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H18"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="1"/>
       <c r="I18"/>
       <c r="J18"/>
     </row>
     <row r="19" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B19" s="4">
-        <v>17</v>
-      </c>
-      <c r="C19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>22</v>
+      <c r="E19" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H19"/>
+        <v>77</v>
+      </c>
+      <c r="H19" s="1"/>
       <c r="I19"/>
       <c r="J19"/>
     </row>
     <row r="20" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B20" s="4">
-        <v>18</v>
-      </c>
-      <c r="C20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H20"/>
+      <c r="E20" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H20" s="1"/>
       <c r="I20"/>
       <c r="J20"/>
     </row>
     <row r="21" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B21" s="4">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>2</v>
@@ -1627,98 +1634,91 @@
         <v>8</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>103</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H21" s="1"/>
     </row>
     <row r="22" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B22" s="4">
-        <v>20</v>
-      </c>
-      <c r="C22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>104</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="H22" s="1"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B23" s="4">
-        <v>21</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>101</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>77</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="H23" s="4"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B24" s="4">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>77</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="H24" s="4"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B25" s="4">
-        <v>23</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>73</v>
-      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B26" s="4">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>13</v>
@@ -1727,18 +1727,21 @@
         <v>10</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="H26" s="12">
+        <v>0.8</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B27" s="4">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>13</v>
@@ -1747,18 +1750,21 @@
         <v>10</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="H27" s="12">
+        <v>0.7</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B28" s="4">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>13</v>
@@ -1766,19 +1772,22 @@
       <c r="D28" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="9" t="s">
-        <v>26</v>
+      <c r="E28" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
+      </c>
+      <c r="H28" s="12">
+        <v>0.5</v>
       </c>
     </row>
     <row r="29" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B29" s="4">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>13</v>
@@ -1786,19 +1795,22 @@
       <c r="D29" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>71</v>
+      <c r="E29" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
+      </c>
+      <c r="H29" s="12">
+        <v>0.7</v>
       </c>
     </row>
     <row r="30" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B30" s="4">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>13</v>
@@ -1806,19 +1818,22 @@
       <c r="D30" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>69</v>
+      <c r="E30" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="H30" s="12">
+        <v>0.7</v>
       </c>
     </row>
     <row r="31" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B31" s="4">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>13</v>
@@ -1827,18 +1842,21 @@
         <v>10</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>67</v>
+        <v>26</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
+      </c>
+      <c r="H31" s="12">
+        <v>0.9</v>
       </c>
     </row>
     <row r="32" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B32" s="4">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>13</v>
@@ -1847,18 +1865,21 @@
         <v>10</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>39</v>
+        <v>82</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
+        <v>72</v>
+      </c>
+      <c r="H32" s="13">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B33" s="4">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>13</v>
@@ -1867,94 +1888,100 @@
         <v>10</v>
       </c>
       <c r="E33" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H33" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B34" s="4">
+        <v>29</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H34" s="13">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B35" s="4">
+        <v>30</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H35" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B36" s="4">
+        <v>31</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="F36" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="G36" s="4" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B34" s="4">
+      <c r="H36" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="12"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B38" s="4">
         <v>32</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G34" s="4"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B35" s="4">
-        <v>33</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G35" s="4"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B36" s="4">
-        <v>34</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B37" s="4">
-        <v>35</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B38" s="4">
-        <v>36</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>14</v>
@@ -1962,19 +1989,18 @@
       <c r="D38" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E38" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="E38" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G38" s="4"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B39" s="4">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>14</v>
@@ -1982,19 +2008,18 @@
       <c r="D39" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E39" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="E39" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G39" s="4"/>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B40" s="4">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>14</v>
@@ -2003,18 +2028,21 @@
         <v>12</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.4">
+        <v>77</v>
+      </c>
+      <c r="H40" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B41" s="4">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>14</v>
@@ -2022,19 +2050,22 @@
       <c r="D41" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E41" s="9" t="s">
-        <v>46</v>
+      <c r="E41" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H41" s="12">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B42" s="4">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>14</v>
@@ -2042,19 +2073,22 @@
       <c r="D42" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E42" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>53</v>
+      <c r="E42" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H42" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B43" s="4">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>14</v>
@@ -2062,19 +2096,22 @@
       <c r="D43" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E43" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>70</v>
+      <c r="E43" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.4">
+        <v>75</v>
+      </c>
+      <c r="H43" s="12">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B44" s="4">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>14</v>
@@ -2082,19 +2119,22 @@
       <c r="D44" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E44" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>68</v>
+      <c r="E44" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.4">
+        <v>76</v>
+      </c>
+      <c r="H44" s="12">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B45" s="4">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>14</v>
@@ -2103,13 +2143,108 @@
         <v>12</v>
       </c>
       <c r="E45" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H45" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B46" s="4">
+        <v>40</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H46" s="12">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B47" s="4">
+        <v>41</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H47" s="12">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B48" s="4">
+        <v>42</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H48" s="12">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B49" s="4">
+        <v>43</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F45" s="9" t="s">
+      <c r="F49" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="G45" s="4" t="s">
+      <c r="G49" s="4" t="s">
         <v>75</v>
+      </c>
+      <c r="H49" s="12">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2120,15 +2255,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -2299,6 +2425,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2306,14 +2441,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2328,6 +2455,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/documnets/ファイル構成一覧表_ヨッシーアイランド.xlsx
+++ b/documnets/ファイル構成一覧表_ヨッシーアイランド.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-3\documnets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C119C296-2122-43D9-B26A-13A0496A3056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F85FEA3A-9D92-4D53-B181-8CD4F5938DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="114">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -772,6 +772,26 @@
     <rPh sb="0" eb="2">
       <t>シンチョク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>admin_lastdata.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>admin_toppage.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>login_user.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Result.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_toppage.java</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1232,10 +1252,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:J49"/>
+  <dimension ref="B2:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1288,9 +1308,11 @@
         <v>107</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H3" s="4"/>
+        <v>76</v>
+      </c>
+      <c r="H3" s="12">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="4" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B4" s="4">
@@ -1311,7 +1333,9 @@
       <c r="G4" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="H4" s="4"/>
+      <c r="H4" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B5" s="4">
@@ -1332,7 +1356,9 @@
       <c r="G5" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="H5" s="4"/>
+      <c r="H5" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B6" s="4">
@@ -1353,7 +1379,9 @@
       <c r="G6" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="H6" s="4"/>
+      <c r="H6" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B7" s="4">
@@ -1374,7 +1402,9 @@
       <c r="G7" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="H7" s="4"/>
+      <c r="H7" s="12">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B8" s="4">
@@ -1392,8 +1422,12 @@
       <c r="F8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="1"/>
+      <c r="G8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" s="12">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B9" s="4">
@@ -1412,7 +1446,9 @@
         <v>30</v>
       </c>
       <c r="G9" s="4"/>
-      <c r="H9" s="1"/>
+      <c r="H9" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B10" s="4">
@@ -1431,7 +1467,9 @@
         <v>66</v>
       </c>
       <c r="G10" s="4"/>
-      <c r="H10" s="1"/>
+      <c r="H10" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B11" s="4">
@@ -1450,7 +1488,9 @@
         <v>31</v>
       </c>
       <c r="G11" s="4"/>
-      <c r="H11" s="1"/>
+      <c r="H11" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B12" s="4"/>
@@ -1480,7 +1520,9 @@
       <c r="G13" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H13" s="4"/>
+      <c r="H13" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B14" s="4">
@@ -1501,7 +1543,9 @@
       <c r="G14" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H14" s="4"/>
+      <c r="H14" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B15" s="4">
@@ -1522,7 +1566,9 @@
       <c r="G15" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="H15" s="4"/>
+      <c r="H15" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B16" s="4">
@@ -1543,7 +1589,9 @@
       <c r="G16" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="H16" s="4"/>
+      <c r="H16" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B17" s="4">
@@ -1564,131 +1612,119 @@
       <c r="G17" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H17" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="9"/>
+      <c r="C18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>109</v>
+      </c>
       <c r="F18" s="9"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="1"/>
-      <c r="I18"/>
-      <c r="J18"/>
-    </row>
-    <row r="19" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="4">
+      <c r="G18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H18" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="4"/>
+      <c r="C19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19" s="9"/>
+      <c r="G19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H19" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="4"/>
+      <c r="C20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" s="9"/>
+      <c r="G20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H20" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="4"/>
+      <c r="C21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F21" s="9"/>
+      <c r="G21" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H21" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F22" s="9"/>
+      <c r="G22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H22" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="1"/>
+      <c r="I23"/>
+      <c r="J23"/>
+    </row>
+    <row r="24" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="4">
         <v>15</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H19" s="1"/>
-      <c r="I19"/>
-      <c r="J19"/>
-    </row>
-    <row r="20" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="4">
-        <v>16</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H20" s="1"/>
-      <c r="I20"/>
-      <c r="J20"/>
-    </row>
-    <row r="21" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="4">
-        <v>17</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="4">
-        <v>18</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B23" s="4">
-        <v>19</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="H23" s="4"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B24" s="4">
-        <v>20</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>2</v>
@@ -1696,144 +1732,150 @@
       <c r="D24" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="H24" s="4"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="E24" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H24" s="12">
+        <v>1</v>
+      </c>
+      <c r="I24"/>
+      <c r="J24"/>
+    </row>
+    <row r="25" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="4">
+        <v>16</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H25" s="12">
+        <v>1</v>
+      </c>
+      <c r="I25"/>
+      <c r="J25"/>
+    </row>
+    <row r="26" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B26" s="4">
-        <v>21</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>77</v>
+        <v>17</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="H26" s="12">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B27" s="4">
-        <v>22</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>102</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H27" s="12">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B28" s="4">
-        <v>23</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>43</v>
+        <v>19</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>101</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="H28" s="12">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B29" s="4">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>19</v>
+        <v>8</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="H29" s="12">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="4">
-        <v>25</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F30" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="12"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B31" s="4">
         <v>21</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H30" s="12">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="4">
-        <v>26</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>13</v>
@@ -1841,22 +1883,22 @@
       <c r="D31" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="9" t="s">
-        <v>26</v>
+      <c r="E31" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>77</v>
       </c>
       <c r="H31" s="12">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B32" s="4">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>13</v>
@@ -1864,22 +1906,22 @@
       <c r="D32" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>71</v>
+      <c r="E32" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H32" s="13">
+        <v>77</v>
+      </c>
+      <c r="H32" s="12">
         <v>0.7</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B33" s="4">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>13</v>
@@ -1887,23 +1929,22 @@
       <c r="D33" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>69</v>
+      <c r="E33" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H33" s="13">
+        <v>73</v>
+      </c>
+      <c r="H33" s="12">
         <v>0.5</v>
       </c>
-      <c r="I33" s="5"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="34" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B34" s="4">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>13</v>
@@ -1911,22 +1952,22 @@
       <c r="D34" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>67</v>
+      <c r="E34" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="H34" s="13">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.4">
+        <v>75</v>
+      </c>
+      <c r="H34" s="12">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B35" s="4">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>13</v>
@@ -1934,22 +1975,22 @@
       <c r="D35" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>39</v>
+      <c r="E35" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H35" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.4">
+        <v>76</v>
+      </c>
+      <c r="H35" s="12">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B36" s="4">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>13</v>
@@ -1958,137 +1999,146 @@
         <v>10</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>34</v>
+        <v>26</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H36" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="12"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B37" s="4">
+        <v>27</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H37" s="13">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B38" s="4">
-        <v>32</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G38" s="4"/>
-      <c r="H38" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H38" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="I38" s="5"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B39" s="4">
-        <v>33</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G39" s="4"/>
-      <c r="H39" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H39" s="13">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B40" s="4">
-        <v>34</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>45</v>
+        <v>30</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H40" s="12">
+        <v>75</v>
+      </c>
+      <c r="H40" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B41" s="4">
-        <v>35</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>48</v>
+        <v>31</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H41" s="12">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B42" s="4">
-        <v>36</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H42" s="12">
-        <v>1</v>
-      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="12"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B43" s="4">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>14</v>
@@ -2096,22 +2146,18 @@
       <c r="D43" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E43" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H43" s="12">
-        <v>0.85</v>
-      </c>
+      <c r="E43" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G43" s="4"/>
+      <c r="H43" s="1"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B44" s="4">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>14</v>
@@ -2119,22 +2165,18 @@
       <c r="D44" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E44" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H44" s="12">
-        <v>0.85</v>
-      </c>
+      <c r="E44" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G44" s="4"/>
+      <c r="H44" s="1"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B45" s="4">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>14</v>
@@ -2142,11 +2184,11 @@
       <c r="D45" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E45" s="9" t="s">
-        <v>46</v>
+      <c r="E45" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>77</v>
@@ -2157,7 +2199,7 @@
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B46" s="4">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>14</v>
@@ -2165,22 +2207,22 @@
       <c r="D46" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E46" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>53</v>
+      <c r="E46" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H46" s="12">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B47" s="4">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>14</v>
@@ -2188,22 +2230,22 @@
       <c r="D47" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E47" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>70</v>
+      <c r="E47" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H47" s="12">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B48" s="4">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>14</v>
@@ -2211,22 +2253,22 @@
       <c r="D48" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E48" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>68</v>
+      <c r="E48" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H48" s="12">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B49" s="4">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>14</v>
@@ -2234,16 +2276,131 @@
       <c r="D49" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E49" s="9" t="s">
+      <c r="E49" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H49" s="12">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B50" s="4">
+        <v>39</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H50" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B51" s="4">
+        <v>40</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H51" s="12">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B52" s="4">
+        <v>41</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H52" s="12">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B53" s="4">
+        <v>42</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H53" s="12">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B54" s="4">
+        <v>43</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F49" s="9" t="s">
+      <c r="F54" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="G49" s="4" t="s">
+      <c r="G54" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="H49" s="12">
+      <c r="H54" s="12">
         <v>1</v>
       </c>
     </row>
@@ -2255,6 +2412,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -2425,15 +2591,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2441,6 +2598,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2455,14 +2620,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/documnets/ファイル構成一覧表_ヨッシーアイランド.xlsx
+++ b/documnets/ファイル構成一覧表_ヨッシーアイランド.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-3\documnets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F85FEA3A-9D92-4D53-B181-8CD4F5938DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D43D0B2A-4BAC-4960-9293-EDF67EA9F110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="7140" yWindow="645" windowWidth="14250" windowHeight="8475" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="114">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -1254,8 +1254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="C2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1357,7 +1357,7 @@
         <v>73</v>
       </c>
       <c r="H5" s="12">
-        <v>0</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="6" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
@@ -1445,7 +1445,9 @@
       <c r="F9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="H9" s="12">
         <v>0</v>
       </c>
@@ -2412,15 +2414,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -2591,6 +2584,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2598,14 +2600,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2620,6 +2614,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/documnets/ファイル構成一覧表_ヨッシーアイランド.xlsx
+++ b/documnets/ファイル構成一覧表_ヨッシーアイランド.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-3\documnets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D43D0B2A-4BAC-4960-9293-EDF67EA9F110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F265F5D-971D-4BDB-8482-252992C325B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7140" yWindow="645" windowWidth="14250" windowHeight="8475" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="114">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -1254,8 +1254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1311,7 +1311,7 @@
         <v>76</v>
       </c>
       <c r="H3" s="12">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="4" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
@@ -1334,7 +1334,7 @@
         <v>74</v>
       </c>
       <c r="H4" s="12">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="5" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
@@ -1380,7 +1380,7 @@
         <v>75</v>
       </c>
       <c r="H6" s="12">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
@@ -1403,7 +1403,7 @@
         <v>76</v>
       </c>
       <c r="H7" s="12">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.4">
@@ -1468,9 +1468,11 @@
       <c r="F10" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>77</v>
+      </c>
       <c r="H10" s="12">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.4">
@@ -2288,7 +2290,7 @@
         <v>76</v>
       </c>
       <c r="H49" s="12">
-        <v>0.85</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.4">
@@ -2414,6 +2416,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -2584,22 +2601,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2616,29 +2643,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/documnets/ファイル構成一覧表_ヨッシーアイランド.xlsx
+++ b/documnets/ファイル構成一覧表_ヨッシーアイランド.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-3\documnets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F265F5D-971D-4BDB-8482-252992C325B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E75FE4B-1593-4156-A550-0F11FDF932E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="116">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -792,6 +792,14 @@
   </si>
   <si>
     <t>user_toppage.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a_lastdataDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者用の過去のデータのDAO</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1252,10 +1260,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:J54"/>
+  <dimension ref="B2:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+    <sheetView tabSelected="1" topLeftCell="C34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1311,7 +1319,7 @@
         <v>76</v>
       </c>
       <c r="H3" s="12">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
@@ -1334,7 +1342,7 @@
         <v>74</v>
       </c>
       <c r="H4" s="12">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="5" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
@@ -1357,7 +1365,7 @@
         <v>73</v>
       </c>
       <c r="H5" s="12">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
@@ -1380,7 +1388,7 @@
         <v>75</v>
       </c>
       <c r="H6" s="12">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="7" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
@@ -1403,7 +1411,7 @@
         <v>76</v>
       </c>
       <c r="H7" s="12">
-        <v>0.45</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.4">
@@ -1870,35 +1878,35 @@
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="12"/>
+      <c r="C30" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H30" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B31" s="4">
         <v>21</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H31" s="12">
-        <v>0.8</v>
-      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="12"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B32" s="4">
@@ -1911,16 +1919,16 @@
         <v>10</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>77</v>
       </c>
       <c r="H32" s="12">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.4">
@@ -1934,16 +1942,16 @@
         <v>10</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H33" s="12">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="34" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
@@ -1957,16 +1965,16 @@
         <v>10</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H34" s="12">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="35" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
@@ -1980,13 +1988,13 @@
         <v>10</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H35" s="12">
         <v>0.7</v>
@@ -2002,17 +2010,17 @@
       <c r="D36" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="9" t="s">
-        <v>26</v>
+      <c r="E36" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H36" s="12">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="37" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
@@ -2026,16 +2034,16 @@
         <v>10</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>71</v>
+        <v>26</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H37" s="13">
-        <v>0.7</v>
+        <v>77</v>
+      </c>
+      <c r="H37" s="12">
+        <v>0.9</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.4">
@@ -2049,16 +2057,16 @@
         <v>10</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H38" s="13">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="I38" s="5"/>
     </row>
@@ -2073,16 +2081,16 @@
         <v>10</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H39" s="13">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.4">
@@ -2096,16 +2104,16 @@
         <v>10</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>39</v>
+        <v>84</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H40" s="13">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.4">
@@ -2119,45 +2127,49 @@
         <v>10</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="H41" s="12">
+      <c r="H41" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="12"/>
+      <c r="C42" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H42" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B43" s="4">
         <v>32</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
       <c r="G43" s="4"/>
-      <c r="H43" s="1"/>
+      <c r="H43" s="12"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B44" s="4">
@@ -2170,10 +2182,10 @@
         <v>12</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="1"/>
@@ -2188,18 +2200,14 @@
       <c r="D45" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E45" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H45" s="12">
-        <v>1</v>
-      </c>
+      <c r="E45" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G45" s="4"/>
+      <c r="H45" s="1"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B46" s="4">
@@ -2212,16 +2220,16 @@
         <v>12</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>77</v>
       </c>
       <c r="H46" s="12">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.4">
@@ -2235,16 +2243,16 @@
         <v>12</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H47" s="12">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.4">
@@ -2258,16 +2266,16 @@
         <v>12</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H48" s="12">
-        <v>0.85</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.4">
@@ -2281,16 +2289,16 @@
         <v>12</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H49" s="12">
-        <v>0.7</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.4">
@@ -2303,17 +2311,17 @@
       <c r="D50" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E50" s="9" t="s">
-        <v>46</v>
+      <c r="E50" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H50" s="12">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.4">
@@ -2327,16 +2335,16 @@
         <v>12</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H51" s="12">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.4">
@@ -2350,13 +2358,13 @@
         <v>12</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H52" s="12">
         <v>0.7</v>
@@ -2373,16 +2381,16 @@
         <v>12</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H53" s="12">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.4">
@@ -2396,15 +2404,35 @@
         <v>12</v>
       </c>
       <c r="E54" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H54" s="12">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C55" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F54" s="9" t="s">
+      <c r="F55" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="G54" s="4" t="s">
+      <c r="G55" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="H54" s="12">
+      <c r="H55" s="12">
         <v>1</v>
       </c>
     </row>
@@ -2416,18 +2444,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2602,6 +2630,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -2614,14 +2650,6 @@
     <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
     <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/documnets/ファイル構成一覧表_ヨッシーアイランド.xlsx
+++ b/documnets/ファイル構成一覧表_ヨッシーアイランド.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-3\documnets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E75FE4B-1593-4156-A550-0F11FDF932E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A9F32BF-82BA-462C-A638-71A36EE14A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -1260,10 +1260,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:J55"/>
+  <dimension ref="B2:J62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1735,344 +1735,246 @@
       <c r="J23"/>
     </row>
     <row r="24" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="4">
-        <v>15</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H24" s="12">
-        <v>1</v>
-      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
       <c r="I24"/>
       <c r="J24"/>
     </row>
     <row r="25" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="4">
-        <v>16</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H25" s="12">
-        <v>1</v>
-      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
       <c r="I25"/>
       <c r="J25"/>
     </row>
     <row r="26" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="4">
-        <v>17</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H26" s="12">
-        <v>1</v>
-      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
     </row>
     <row r="27" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="4">
-        <v>18</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H27" s="12">
-        <v>1</v>
-      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B28" s="4">
-        <v>19</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="H28" s="12">
-        <v>1</v>
-      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B29" s="4">
-        <v>20</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="H29" s="12">
-        <v>1</v>
-      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B30" s="4"/>
-      <c r="C30" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H30" s="12">
-        <v>1</v>
-      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B31" s="4">
-        <v>21</v>
-      </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="12"/>
+        <v>15</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H31" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B32" s="4">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>77</v>
       </c>
       <c r="H32" s="12">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B33" s="4">
-        <v>23</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>77</v>
+        <v>17</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="H33" s="12">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B34" s="4">
-        <v>24</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>43</v>
+        <v>18</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>102</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H34" s="12">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B35" s="4">
-        <v>25</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F35" s="4" t="s">
         <v>19</v>
       </c>
+      <c r="C35" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>101</v>
+      </c>
       <c r="G35" s="4" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="H35" s="12">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B36" s="4">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>21</v>
+        <v>8</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="H36" s="12">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B37" s="4">
-        <v>27</v>
-      </c>
+      <c r="B37" s="4"/>
       <c r="C37" s="4" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>33</v>
+        <v>8</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>115</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H37" s="12">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B38" s="4">
-        <v>28</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H38" s="13">
-        <v>0.7</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="12"/>
       <c r="I38" s="5"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B39" s="4">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>13</v>
@@ -2080,22 +1982,22 @@
       <c r="D39" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>69</v>
+      <c r="E39" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="H39" s="13">
+      <c r="H39" s="12">
         <v>0.8</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B40" s="4">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>13</v>
@@ -2103,22 +2005,22 @@
       <c r="D40" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E40" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>67</v>
+      <c r="E40" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="H40" s="13">
-        <v>0.6</v>
+        <v>77</v>
+      </c>
+      <c r="H40" s="12">
+        <v>0.7</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B41" s="4">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>13</v>
@@ -2126,207 +2028,215 @@
       <c r="D41" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E41" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>39</v>
+      <c r="E41" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H41" s="13">
-        <v>1</v>
+        <v>73</v>
+      </c>
+      <c r="H41" s="12">
+        <v>0.75</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B42" s="4"/>
+      <c r="B42" s="4">
+        <v>25</v>
+      </c>
       <c r="C42" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>34</v>
+      <c r="E42" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>75</v>
       </c>
       <c r="H42" s="12">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B43" s="4">
-        <v>32</v>
-      </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="12"/>
+        <v>26</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H43" s="12">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B44" s="4">
+        <v>27</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F44" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G44" s="4"/>
-      <c r="H44" s="1"/>
+      <c r="G44" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H44" s="12">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B45" s="4">
-        <v>34</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E45" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G45" s="4"/>
-      <c r="H45" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H45" s="13">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B46" s="4">
-        <v>35</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>45</v>
+        <v>29</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="H46" s="12">
-        <v>1</v>
+      <c r="H46" s="13">
+        <v>0.8</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B47" s="4">
-        <v>36</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>48</v>
+        <v>30</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H47" s="12">
-        <v>0.8</v>
+        <v>74</v>
+      </c>
+      <c r="H47" s="13">
+        <v>0.6</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B48" s="4">
-        <v>37</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>49</v>
+        <v>31</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H48" s="12">
+        <v>75</v>
+      </c>
+      <c r="H48" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B49" s="4">
-        <v>38</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>50</v>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>75</v>
       </c>
       <c r="H49" s="12">
-        <v>0.85</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B50" s="4">
-        <v>39</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H50" s="12">
-        <v>0.7</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="12"/>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B51" s="4">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>14</v>
@@ -2334,22 +2244,18 @@
       <c r="D51" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E51" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H51" s="12">
-        <v>1</v>
-      </c>
+      <c r="E51" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G51" s="4"/>
+      <c r="H51" s="1"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B52" s="4">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>14</v>
@@ -2357,22 +2263,18 @@
       <c r="D52" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E52" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H52" s="12">
-        <v>0.7</v>
-      </c>
+      <c r="E52" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G52" s="4"/>
+      <c r="H52" s="1"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B53" s="4">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>14</v>
@@ -2380,22 +2282,22 @@
       <c r="D53" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>70</v>
+      <c r="E53" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>77</v>
       </c>
       <c r="H53" s="12">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B54" s="4">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>14</v>
@@ -2403,36 +2305,197 @@
       <c r="D54" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E54" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>68</v>
+      <c r="E54" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H54" s="12">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B55" s="4">
+        <v>37</v>
+      </c>
       <c r="C55" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E55" s="9" t="s">
+      <c r="E55" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H55" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B56" s="4">
+        <v>38</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H56" s="12">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B57" s="4">
+        <v>39</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H57" s="12">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B58" s="4">
+        <v>40</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H58" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B59" s="4">
+        <v>41</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H59" s="12">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B60" s="4">
+        <v>42</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H60" s="12">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B61" s="4">
+        <v>43</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H61" s="12">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C62" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F55" s="9" t="s">
+      <c r="F62" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="G55" s="4" t="s">
+      <c r="G62" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="H55" s="12">
+      <c r="H62" s="12">
         <v>1</v>
       </c>
     </row>
@@ -2444,18 +2507,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2630,14 +2693,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -2650,6 +2705,14 @@
     <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
     <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/documnets/ファイル構成一覧表_ヨッシーアイランド.xlsx
+++ b/documnets/ファイル構成一覧表_ヨッシーアイランド.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-3\documnets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A9F32BF-82BA-462C-A638-71A36EE14A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329BC96F-5773-415D-B6C7-04650D1871EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="117">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -783,10 +783,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>login_user.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Result.java</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -800,6 +796,14 @@
   </si>
   <si>
     <t>管理者用の過去のデータのDAO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LoginAdmin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LoginUser.java</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1260,10 +1264,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:J62"/>
+  <dimension ref="B2:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1629,7 +1633,9 @@
       </c>
     </row>
     <row r="18" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="4"/>
+      <c r="B18" s="4">
+        <v>15</v>
+      </c>
       <c r="C18" s="1" t="s">
         <v>2</v>
       </c>
@@ -1648,7 +1654,9 @@
       </c>
     </row>
     <row r="19" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="4"/>
+      <c r="B19" s="4">
+        <v>16</v>
+      </c>
       <c r="C19" s="1" t="s">
         <v>2</v>
       </c>
@@ -1667,7 +1675,9 @@
       </c>
     </row>
     <row r="20" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="4"/>
+      <c r="B20" s="4">
+        <v>17</v>
+      </c>
       <c r="C20" s="1" t="s">
         <v>2</v>
       </c>
@@ -1675,7 +1685,7 @@
         <v>9</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="1" t="s">
@@ -1686,7 +1696,9 @@
       </c>
     </row>
     <row r="21" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="4"/>
+      <c r="B21" s="4">
+        <v>18</v>
+      </c>
       <c r="C21" s="1" t="s">
         <v>2</v>
       </c>
@@ -1694,7 +1706,7 @@
         <v>9</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="4" t="s">
@@ -1705,7 +1717,9 @@
       </c>
     </row>
     <row r="22" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="4"/>
+      <c r="B22" s="4">
+        <v>19</v>
+      </c>
       <c r="C22" s="4" t="s">
         <v>2</v>
       </c>
@@ -1713,7 +1727,7 @@
         <v>9</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="1" t="s">
@@ -1724,13 +1738,25 @@
       </c>
     </row>
     <row r="23" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="9"/>
+      <c r="B23" s="4">
+        <v>20</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>115</v>
+      </c>
       <c r="F23" s="9"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="1"/>
+      <c r="G23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H23" s="12">
+        <v>1</v>
+      </c>
       <c r="I23"/>
       <c r="J23"/>
     </row>
@@ -1746,64 +1772,148 @@
       <c r="J24"/>
     </row>
     <row r="25" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
+      <c r="B25" s="4">
+        <v>15</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H25" s="12">
+        <v>1</v>
+      </c>
       <c r="I25"/>
       <c r="J25"/>
     </row>
     <row r="26" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
+      <c r="B26" s="4">
+        <v>16</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H26" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
+      <c r="B27" s="4">
+        <v>17</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H27" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
+      <c r="B28" s="4">
+        <v>18</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H28" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
+      <c r="B29" s="4">
+        <v>19</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H29" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
+      <c r="B30" s="4">
+        <v>20</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H30" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B31" s="4">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>2</v>
@@ -1811,170 +1921,170 @@
       <c r="D31" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E31" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>77</v>
+      <c r="E31" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="H31" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B32" s="4">
-        <v>16</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H32" s="12">
-        <v>1</v>
-      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="12"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B33" s="4">
-        <v>17</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="F33" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>73</v>
+      <c r="C33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="H33" s="12">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="34" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B34" s="4">
-        <v>18</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>102</v>
+        <v>23</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H34" s="12">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="35" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B35" s="4">
-        <v>19</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>101</v>
+        <v>24</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="H35" s="12">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="36" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B36" s="4">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>32</v>
+        <v>10</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="H36" s="12">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="37" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B37" s="4"/>
+      <c r="B37" s="4">
+        <v>26</v>
+      </c>
       <c r="C37" s="4" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>115</v>
+        <v>10</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H37" s="12">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B38" s="4">
-        <v>21</v>
-      </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="12"/>
+        <v>27</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H38" s="12">
+        <v>0.9</v>
+      </c>
       <c r="I38" s="5"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B39" s="4">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>13</v>
@@ -1982,22 +2092,22 @@
       <c r="D39" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>11</v>
+      <c r="E39" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H39" s="12">
-        <v>0.8</v>
+        <v>72</v>
+      </c>
+      <c r="H39" s="13">
+        <v>0.7</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B40" s="4">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>13</v>
@@ -2005,22 +2115,22 @@
       <c r="D40" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E40" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>15</v>
+      <c r="E40" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="H40" s="12">
-        <v>0.7</v>
+      <c r="H40" s="13">
+        <v>0.8</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B41" s="4">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>13</v>
@@ -2028,22 +2138,22 @@
       <c r="D41" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E41" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>43</v>
+      <c r="E41" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H41" s="12">
-        <v>0.75</v>
+        <v>74</v>
+      </c>
+      <c r="H41" s="13">
+        <v>0.6</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B42" s="4">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>13</v>
@@ -2051,22 +2161,22 @@
       <c r="D42" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>19</v>
+      <c r="E42" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="H42" s="12">
-        <v>0.7</v>
+      <c r="H42" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B43" s="4">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>13</v>
@@ -2074,150 +2184,130 @@
       <c r="D43" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>21</v>
+      <c r="E43" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H43" s="12">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B44" s="4">
-        <v>27</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H44" s="12">
-        <v>0.9</v>
-      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="12"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B45" s="4">
-        <v>28</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H45" s="13">
-        <v>0.7</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G45" s="4"/>
+      <c r="H45" s="1"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B46" s="4">
-        <v>29</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H46" s="13">
-        <v>0.8</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G46" s="4"/>
+      <c r="H46" s="1"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B47" s="4">
-        <v>30</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>67</v>
+        <v>35</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="H47" s="13">
-        <v>0.6</v>
+        <v>77</v>
+      </c>
+      <c r="H47" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B48" s="4">
-        <v>31</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H48" s="13">
-        <v>1</v>
+        <v>77</v>
+      </c>
+      <c r="H48" s="12">
+        <v>0.8</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B49" s="4"/>
-      <c r="C49" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>34</v>
+      <c r="B49" s="4">
+        <v>37</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H49" s="12">
         <v>1</v>
@@ -2225,18 +2315,30 @@
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B50" s="4">
-        <v>32</v>
-      </c>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="12"/>
+        <v>38</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H50" s="12">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B51" s="4">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>14</v>
@@ -2244,18 +2346,22 @@
       <c r="D51" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E51" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G51" s="4"/>
-      <c r="H51" s="1"/>
+      <c r="E51" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H51" s="12">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B52" s="4">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>14</v>
@@ -2263,18 +2369,22 @@
       <c r="D52" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E52" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G52" s="4"/>
-      <c r="H52" s="1"/>
+      <c r="E52" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H52" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B53" s="4">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>14</v>
@@ -2282,22 +2392,22 @@
       <c r="D53" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>45</v>
+      <c r="E53" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H53" s="12">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B54" s="4">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>14</v>
@@ -2305,22 +2415,22 @@
       <c r="D54" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E54" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>48</v>
+      <c r="E54" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>77</v>
       </c>
       <c r="H54" s="12">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B55" s="4">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>14</v>
@@ -2328,22 +2438,22 @@
       <c r="D55" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E55" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>49</v>
+      <c r="E55" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H55" s="12">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B56" s="4">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>14</v>
@@ -2351,151 +2461,16 @@
       <c r="D56" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E56" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>50</v>
+      <c r="E56" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>75</v>
       </c>
       <c r="H56" s="12">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B57" s="4">
-        <v>39</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H57" s="12">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B58" s="4">
-        <v>40</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H58" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B59" s="4">
-        <v>41</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E59" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H59" s="12">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B60" s="4">
-        <v>42</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E60" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H60" s="12">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B61" s="4">
-        <v>43</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E61" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="H61" s="12">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="C62" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F62" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H62" s="12">
         <v>1</v>
       </c>
     </row>

--- a/documnets/ファイル構成一覧表_ヨッシーアイランド.xlsx
+++ b/documnets/ファイル構成一覧表_ヨッシーアイランド.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-3\documnets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329BC96F-5773-415D-B6C7-04650D1871EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6903736-3D80-426A-8ACE-FADFE6EC51F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -1267,7 +1267,7 @@
   <dimension ref="B2:J56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1484,7 +1484,7 @@
         <v>77</v>
       </c>
       <c r="H10" s="12">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.4">
@@ -2482,18 +2482,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2668,6 +2668,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -2680,14 +2688,6 @@
     <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
     <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/documnets/ファイル構成一覧表_ヨッシーアイランド.xlsx
+++ b/documnets/ファイル構成一覧表_ヨッシーアイランド.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-3\documnets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6903736-3D80-426A-8ACE-FADFE6EC51F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD7C502-7DB9-4EC4-A46E-811300B6CD7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -1266,8 +1266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1346,7 +1346,7 @@
         <v>74</v>
       </c>
       <c r="H4" s="12">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="5" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
@@ -1392,7 +1392,7 @@
         <v>75</v>
       </c>
       <c r="H6" s="12">
-        <v>0.65</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="7" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
@@ -1415,7 +1415,7 @@
         <v>76</v>
       </c>
       <c r="H7" s="12">
-        <v>0.55000000000000004</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.4">
@@ -1461,7 +1461,7 @@
         <v>73</v>
       </c>
       <c r="H9" s="12">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.4">
@@ -1505,7 +1505,7 @@
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="12">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="12" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.4">

--- a/documnets/ファイル構成一覧表_ヨッシーアイランド.xlsx
+++ b/documnets/ファイル構成一覧表_ヨッシーアイランド.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-3\documnets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD7C502-7DB9-4EC4-A46E-811300B6CD7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C27E3E-FFE2-4285-A7A3-16CE3BF77C15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="120">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -804,6 +804,33 @@
   </si>
   <si>
     <t>LoginUser.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※トップページに飛べない</t>
+    <rPh sb="8" eb="9">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※月ごとに分けていない</t>
+    <rPh sb="1" eb="2">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全体の進捗</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シンチョク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -811,7 +838,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -845,6 +872,40 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -902,12 +963,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -950,8 +1014,24 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="パーセント" xfId="1" builtinId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1264,10 +1344,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:J56"/>
+  <dimension ref="B2:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="B46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1280,7 +1360,7 @@
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1303,7 +1383,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B3" s="4">
         <v>1</v>
       </c>
@@ -1326,7 +1406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B4" s="4">
         <v>2</v>
       </c>
@@ -1349,7 +1429,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="5" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B5" s="4">
         <v>3</v>
       </c>
@@ -1369,10 +1449,10 @@
         <v>73</v>
       </c>
       <c r="H5" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B6" s="4">
         <v>4</v>
       </c>
@@ -1395,7 +1475,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="7" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B7" s="4">
         <v>5</v>
       </c>
@@ -1418,7 +1498,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B8" s="4">
         <v>6</v>
       </c>
@@ -1440,8 +1520,11 @@
       <c r="H8" s="12">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B9" s="4">
         <v>7</v>
       </c>
@@ -1464,7 +1547,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B10" s="4">
         <v>8</v>
       </c>
@@ -1487,7 +1570,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B11" s="4">
         <v>9</v>
       </c>
@@ -1508,16 +1591,19 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="12" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="10"/>
       <c r="F12" s="1"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H12" s="14">
+        <f>SUM(H3:H11)/9</f>
+        <v>0.76666666666666672</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B13" s="4">
         <v>10</v>
       </c>
@@ -1540,7 +1626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B14" s="4">
         <v>11</v>
       </c>
@@ -1563,7 +1649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B15" s="4">
         <v>12</v>
       </c>
@@ -1586,7 +1672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B16" s="4">
         <v>13</v>
       </c>
@@ -1767,7 +1853,10 @@
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
+      <c r="H24" s="15">
+        <f>SUM(H13,H14,H15,H16,H17,H18,H19,H20,H21,H22,H23)/11</f>
+        <v>1</v>
+      </c>
       <c r="I24"/>
       <c r="J24"/>
     </row>
@@ -1941,7 +2030,10 @@
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="4"/>
-      <c r="H32" s="12"/>
+      <c r="H32" s="14">
+        <f>SUM(H25:H31)/7</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B33" s="4">
@@ -2126,6 +2218,9 @@
       </c>
       <c r="H40" s="13">
         <v>0.8</v>
+      </c>
+      <c r="I40" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.4">
@@ -2204,7 +2299,10 @@
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
       <c r="G44" s="4"/>
-      <c r="H44" s="12"/>
+      <c r="H44" s="14">
+        <f>SUM(H33:H43)/11</f>
+        <v>0.78636363636363638</v>
+      </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B45" s="4">
@@ -2472,6 +2570,21 @@
       </c>
       <c r="H56" s="12">
         <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="H57" s="16">
+        <f>SUM(H47:H56)/10</f>
+        <v>0.86499999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="G59" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="H59" s="17">
+        <f>SUM(H12,H24,H32,H44,H57)/5</f>
+        <v>0.88360606060606062</v>
       </c>
     </row>
   </sheetData>
@@ -2482,18 +2595,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2668,14 +2781,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -2688,6 +2793,14 @@
     <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
     <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/documnets/ファイル構成一覧表_ヨッシーアイランド.xlsx
+++ b/documnets/ファイル構成一覧表_ヨッシーアイランド.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-3\documnets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C27E3E-FFE2-4285-A7A3-16CE3BF77C15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF138E6C-EED8-491B-9C0A-D89B14DF9660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="123">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -824,12 +824,54 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>全体の進捗</t>
+    <t>※idを指定して表示していない</t>
+    <rPh sb="4" eb="6">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全体進捗</t>
     <rPh sb="0" eb="2">
       <t>ゼンタイ</t>
     </rPh>
-    <rPh sb="3" eb="5">
+    <rPh sb="2" eb="4">
       <t>シンチョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※月ごとに表示</t>
+    <rPh sb="1" eb="2">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※診断結果ページに飛んでいない、一言診断結果のタイトル、ID指定</t>
+    <rPh sb="1" eb="5">
+      <t>シンダンケッカ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒトコト</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シンダン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1346,8 +1388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1472,7 +1514,7 @@
         <v>75</v>
       </c>
       <c r="H6" s="12">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="7" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
@@ -1495,7 +1537,10 @@
         <v>76</v>
       </c>
       <c r="H7" s="12">
-        <v>0.9</v>
+        <v>1</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.4">
@@ -1518,7 +1563,7 @@
         <v>76</v>
       </c>
       <c r="H8" s="12">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I8" t="s">
         <v>117</v>
@@ -1544,7 +1589,7 @@
         <v>73</v>
       </c>
       <c r="H9" s="12">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.4">
@@ -1569,6 +1614,9 @@
       <c r="H10" s="12">
         <v>0.9</v>
       </c>
+      <c r="I10" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B11" s="4">
@@ -1586,9 +1634,14 @@
       <c r="F11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="H11" s="12">
-        <v>0.2</v>
+        <v>0.8</v>
+      </c>
+      <c r="I11" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
@@ -1600,7 +1653,7 @@
       <c r="G12" s="4"/>
       <c r="H12" s="14">
         <f>SUM(H3:H11)/9</f>
-        <v>0.76666666666666672</v>
+        <v>0.91666666666666685</v>
       </c>
     </row>
     <row r="13" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
@@ -2101,7 +2154,7 @@
         <v>73</v>
       </c>
       <c r="H35" s="12">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="36" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
@@ -2243,7 +2296,7 @@
         <v>74</v>
       </c>
       <c r="H41" s="13">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.4">
@@ -2301,7 +2354,7 @@
       <c r="G44" s="4"/>
       <c r="H44" s="14">
         <f>SUM(H33:H43)/11</f>
-        <v>0.78636363636363638</v>
+        <v>0.79545454545454541</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.4">
@@ -2580,11 +2633,11 @@
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.4">
       <c r="G59" s="18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H59" s="17">
         <f>SUM(H12,H24,H32,H44,H57)/5</f>
-        <v>0.88360606060606062</v>
+        <v>0.91542424242424247</v>
       </c>
     </row>
   </sheetData>

--- a/documnets/ファイル構成一覧表_ヨッシーアイランド.xlsx
+++ b/documnets/ファイル構成一覧表_ヨッシーアイランド.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-3\documnets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF138E6C-EED8-491B-9C0A-D89B14DF9660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0479D0B1-2E79-406A-A7F0-581F5A659993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="125">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -872,6 +872,29 @@
     </rPh>
     <rPh sb="30" eb="32">
       <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※管理者用を作成</t>
+    <rPh sb="1" eb="5">
+      <t>カンリシャヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※吹き出しの中身をスクロール</t>
+    <rPh sb="1" eb="2">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ナカミ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1388,8 +1411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H59" sqref="H59"/>
+    <sheetView tabSelected="1" topLeftCell="B37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2249,6 +2272,9 @@
       <c r="H39" s="13">
         <v>0.7</v>
       </c>
+      <c r="I39" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B40" s="4">
@@ -2320,6 +2346,9 @@
       </c>
       <c r="H42" s="13">
         <v>1</v>
+      </c>
+      <c r="I42" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.4">
@@ -2648,21 +2677,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -2833,32 +2847,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2875,4 +2879,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/documnets/ファイル構成一覧表_ヨッシーアイランド.xlsx
+++ b/documnets/ファイル構成一覧表_ヨッシーアイランド.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-3\documnets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0479D0B1-2E79-406A-A7F0-581F5A659993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9C6CEB-A355-4197-853A-CA78284FCAB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="126">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -895,6 +895,25 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>ナカミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※カレンダーの曜日と日付の連携、毎日のアイコン表示</t>
+    <rPh sb="7" eb="9">
+      <t>ヨウビ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>レンケイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>マイニチ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1411,8 +1430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="B28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2178,6 +2197,9 @@
       </c>
       <c r="H35" s="12">
         <v>0.7</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="36" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.4">

--- a/documnets/ファイル構成一覧表_ヨッシーアイランド.xlsx
+++ b/documnets/ファイル構成一覧表_ヨッシーアイランド.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-3\documnets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9C6CEB-A355-4197-853A-CA78284FCAB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E43D05-51BB-4C06-883C-91510B786C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -814,16 +814,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※月ごとに分けていない</t>
-    <rPh sb="1" eb="2">
-      <t>ツキ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>※idを指定して表示していない</t>
     <rPh sb="4" eb="6">
       <t>シテイ</t>
@@ -844,16 +834,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※月ごとに表示</t>
-    <rPh sb="1" eb="2">
-      <t>ツキ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>※診断結果ページに飛んでいない、一言診断結果のタイトル、ID指定</t>
     <rPh sb="1" eb="5">
       <t>シンダンケッカ</t>
@@ -914,6 +894,74 @@
     </rPh>
     <rPh sb="23" eb="25">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.499984740745262"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>済</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>※月ごとに表示</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>スミ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.499984740745262"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>済</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>※月ごとに分けていない</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>スミ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ワ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -922,7 +970,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -995,6 +1043,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8" tint="-0.499984740745262"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1055,7 +1111,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1111,6 +1167,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1430,8 +1489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView tabSelected="1" topLeftCell="B31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1582,7 +1641,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.4">
@@ -1656,8 +1715,8 @@
       <c r="H10" s="12">
         <v>0.9</v>
       </c>
-      <c r="I10" t="s">
-        <v>121</v>
+      <c r="I10" s="19" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.4">
@@ -1683,7 +1742,7 @@
         <v>0.8</v>
       </c>
       <c r="I11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
@@ -2199,7 +2258,7 @@
         <v>0.7</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
@@ -2295,7 +2354,7 @@
         <v>0.7</v>
       </c>
       <c r="I39" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.4">
@@ -2318,10 +2377,10 @@
         <v>77</v>
       </c>
       <c r="H40" s="13">
-        <v>0.8</v>
-      </c>
-      <c r="I40" t="s">
-        <v>118</v>
+        <v>1</v>
+      </c>
+      <c r="I40" s="19" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.4">
@@ -2370,7 +2429,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.4">
@@ -2405,7 +2464,7 @@
       <c r="G44" s="4"/>
       <c r="H44" s="14">
         <f>SUM(H33:H43)/11</f>
-        <v>0.79545454545454541</v>
+        <v>0.81363636363636371</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.4">
@@ -2684,11 +2743,11 @@
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.4">
       <c r="G59" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H59" s="17">
         <f>SUM(H12,H24,H32,H44,H57)/5</f>
-        <v>0.91542424242424247</v>
+        <v>0.91906060606060613</v>
       </c>
     </row>
   </sheetData>

--- a/documnets/ファイル構成一覧表_ヨッシーアイランド.xlsx
+++ b/documnets/ファイル構成一覧表_ヨッシーアイランド.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-3\documnets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E43D05-51BB-4C06-883C-91510B786C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C37B83F9-C16C-4519-82BA-429DA06AD54C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="125">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -900,6 +900,7 @@
   <si>
     <r>
       <rPr>
+        <u/>
         <sz val="11"/>
         <color theme="8" tint="-0.499984740745262"/>
         <rFont val="游ゴシック"/>
@@ -912,36 +913,13 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>※月ごとに表示</t>
-    </r>
-    <rPh sb="0" eb="1">
-      <t>スミ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ツキ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
         <color theme="8" tint="-0.499984740745262"/>
         <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>済</t>
+      <t>　</t>
     </r>
     <r>
       <rPr>
@@ -957,10 +935,10 @@
     <rPh sb="0" eb="1">
       <t>スミ</t>
     </rPh>
-    <rPh sb="2" eb="3">
+    <rPh sb="3" eb="4">
       <t>ツキ</t>
     </rPh>
-    <rPh sb="6" eb="7">
+    <rPh sb="7" eb="8">
       <t>ワ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -970,7 +948,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1044,6 +1022,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="8" tint="-0.499984740745262"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="8" tint="-0.499984740745262"/>
       <name val="游ゴシック"/>
@@ -1489,8 +1476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1713,11 +1700,9 @@
         <v>77</v>
       </c>
       <c r="H10" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="I10" s="19" t="s">
-        <v>124</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I10" s="19"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B11" s="4">
@@ -1754,7 +1739,7 @@
       <c r="G12" s="4"/>
       <c r="H12" s="14">
         <f>SUM(H3:H11)/9</f>
-        <v>0.91666666666666685</v>
+        <v>0.92777777777777792</v>
       </c>
     </row>
     <row r="13" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
@@ -2304,7 +2289,7 @@
         <v>76</v>
       </c>
       <c r="H37" s="12">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.4">
@@ -2380,7 +2365,7 @@
         <v>1</v>
       </c>
       <c r="I40" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.4">
@@ -2464,7 +2449,7 @@
       <c r="G44" s="4"/>
       <c r="H44" s="14">
         <f>SUM(H33:H43)/11</f>
-        <v>0.81363636363636371</v>
+        <v>0.84090909090909094</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.4">
@@ -2747,7 +2732,7 @@
       </c>
       <c r="H59" s="17">
         <f>SUM(H12,H24,H32,H44,H57)/5</f>
-        <v>0.91906060606060613</v>
+        <v>0.92673737373737386</v>
       </c>
     </row>
   </sheetData>

--- a/documnets/ファイル構成一覧表_ヨッシーアイランド.xlsx
+++ b/documnets/ファイル構成一覧表_ヨッシーアイランド.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-3\documnets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C37B83F9-C16C-4519-82BA-429DA06AD54C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C16B56-5DB2-4565-9787-9033488D740E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="128">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -814,6 +814,16 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>※月ごとに分けていない</t>
+    <rPh sb="1" eb="2">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>※idを指定して表示していない</t>
     <rPh sb="4" eb="6">
       <t>シテイ</t>
@@ -879,67 +889,24 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※カレンダーの曜日と日付の連携、毎日のアイコン表示</t>
+    <t>※カレンダーの曜日</t>
     <rPh sb="7" eb="9">
       <t>ヨウビ</t>
     </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>レンケイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>マイニチ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="8" tint="-0.499984740745262"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>済</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8" tint="-0.499984740745262"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>　</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>※月ごとに分けていない</t>
-    </r>
-    <rPh sb="0" eb="1">
-      <t>スミ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ツキ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ワ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付の連携毎日のアイコン表示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7月にいけないように</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CSSの適用</t>
+    <rPh sb="4" eb="6">
+      <t>テキヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -948,7 +915,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1022,19 +989,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <strike/>
       <sz val="11"/>
-      <color theme="8" tint="-0.499984740745262"/>
+      <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <strike/>
       <sz val="11"/>
-      <color theme="8" tint="-0.499984740745262"/>
       <name val="游ゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -1098,7 +1074,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1157,6 +1133,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1474,10 +1459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:J59"/>
+  <dimension ref="B2:K59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="E25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1488,6 +1473,8 @@
     <col min="5" max="5" width="30.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="45.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28" customWidth="1"/>
+    <col min="10" max="10" width="29.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.4">
@@ -1602,7 +1589,7 @@
         <v>75</v>
       </c>
       <c r="H6" s="12">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="7" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
@@ -1628,7 +1615,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.4">
@@ -1677,7 +1664,7 @@
         <v>73</v>
       </c>
       <c r="H9" s="12">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.4">
@@ -1724,10 +1711,10 @@
         <v>74</v>
       </c>
       <c r="H11" s="12">
-        <v>0.8</v>
-      </c>
-      <c r="I11" t="s">
-        <v>118</v>
+        <v>0.95</v>
+      </c>
+      <c r="I11" s="22" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
@@ -1739,7 +1726,7 @@
       <c r="G12" s="4"/>
       <c r="H12" s="14">
         <f>SUM(H3:H11)/9</f>
-        <v>0.92777777777777792</v>
+        <v>0.95777777777777773</v>
       </c>
     </row>
     <row r="13" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
@@ -2174,7 +2161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B33" s="4">
         <v>22</v>
       </c>
@@ -2197,7 +2184,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="34" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B34" s="4">
         <v>23</v>
       </c>
@@ -2220,7 +2207,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="35" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B35" s="4">
         <v>24</v>
       </c>
@@ -2240,13 +2227,19 @@
         <v>73</v>
       </c>
       <c r="H35" s="12">
-        <v>0.7</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
+        <v>0.85</v>
+      </c>
+      <c r="I35" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B36" s="4">
         <v>25</v>
       </c>
@@ -2266,10 +2259,10 @@
         <v>75</v>
       </c>
       <c r="H36" s="12">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B37" s="4">
         <v>26</v>
       </c>
@@ -2292,7 +2285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B38" s="4">
         <v>27</v>
       </c>
@@ -2316,7 +2309,7 @@
       </c>
       <c r="I38" s="5"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B39" s="4">
         <v>28</v>
       </c>
@@ -2336,13 +2329,13 @@
         <v>72</v>
       </c>
       <c r="H39" s="13">
-        <v>0.7</v>
-      </c>
-      <c r="I39" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="I39" s="22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B40" s="4">
         <v>29</v>
       </c>
@@ -2364,11 +2357,14 @@
       <c r="H40" s="13">
         <v>1</v>
       </c>
-      <c r="I40" s="19" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I40" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="J40" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B41" s="4">
         <v>30</v>
       </c>
@@ -2388,10 +2384,10 @@
         <v>74</v>
       </c>
       <c r="H41" s="13">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B42" s="4">
         <v>31</v>
       </c>
@@ -2413,11 +2409,11 @@
       <c r="H42" s="13">
         <v>1</v>
       </c>
-      <c r="I42" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I42" s="22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B43" s="4">
         <v>32</v>
       </c>
@@ -2440,7 +2436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B44" s="1"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -2449,10 +2445,10 @@
       <c r="G44" s="4"/>
       <c r="H44" s="14">
         <f>SUM(H33:H43)/11</f>
-        <v>0.84090909090909094</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.4">
+        <v>0.93181818181818177</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B45" s="4">
         <v>33</v>
       </c>
@@ -2471,7 +2467,7 @@
       <c r="G45" s="4"/>
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B46" s="4">
         <v>34</v>
       </c>
@@ -2490,7 +2486,7 @@
       <c r="G46" s="4"/>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B47" s="4">
         <v>35</v>
       </c>
@@ -2513,7 +2509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B48" s="4">
         <v>36</v>
       </c>
@@ -2602,7 +2598,7 @@
         <v>76</v>
       </c>
       <c r="H51" s="12">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.4">
@@ -2723,16 +2719,16 @@
     <row r="57" spans="2:8" x14ac:dyDescent="0.4">
       <c r="H57" s="16">
         <f>SUM(H47:H56)/10</f>
-        <v>0.86499999999999999</v>
+        <v>0.89500000000000013</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.4">
       <c r="G59" s="18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H59" s="17">
         <f>SUM(H12,H24,H32,H44,H57)/5</f>
-        <v>0.92673737373737386</v>
+        <v>0.95691919191919195</v>
       </c>
     </row>
   </sheetData>

--- a/documnets/ファイル構成一覧表_ヨッシーアイランド.xlsx
+++ b/documnets/ファイル構成一覧表_ヨッシーアイランド.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-3\documnets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C16B56-5DB2-4565-9787-9033488D740E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22430B85-E2DF-40A4-BBA4-2CBDC4F4865D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="129">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -907,6 +907,13 @@
     <t>CSSの適用</t>
     <rPh sb="4" eb="6">
       <t>テキヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↑アイコンの注釈</t>
+    <rPh sb="6" eb="8">
+      <t>チュウシャク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1461,8 +1468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:K59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1543,7 +1550,7 @@
         <v>74</v>
       </c>
       <c r="H4" s="12">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
@@ -1566,7 +1573,7 @@
         <v>73</v>
       </c>
       <c r="H5" s="12">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
@@ -1612,7 +1619,7 @@
         <v>76</v>
       </c>
       <c r="H7" s="12">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>121</v>
@@ -1711,7 +1718,7 @@
         <v>74</v>
       </c>
       <c r="H11" s="12">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="I11" s="22" t="s">
         <v>119</v>
@@ -1726,7 +1733,7 @@
       <c r="G12" s="4"/>
       <c r="H12" s="14">
         <f>SUM(H3:H11)/9</f>
-        <v>0.95777777777777773</v>
+        <v>0.98555555555555563</v>
       </c>
     </row>
     <row r="13" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
@@ -2260,6 +2267,9 @@
       </c>
       <c r="H36" s="12">
         <v>1</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.4">
@@ -2728,7 +2738,7 @@
       </c>
       <c r="H59" s="17">
         <f>SUM(H12,H24,H32,H44,H57)/5</f>
-        <v>0.95691919191919195</v>
+        <v>0.96247474747474748</v>
       </c>
     </row>
   </sheetData>
@@ -2739,6 +2749,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -2909,22 +2934,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2941,29 +2976,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/documnets/ファイル構成一覧表_ヨッシーアイランド.xlsx
+++ b/documnets/ファイル構成一覧表_ヨッシーアイランド.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-3\documnets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22430B85-E2DF-40A4-BBA4-2CBDC4F4865D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC6CE99-E941-4ACD-8196-A13A863EB548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="127">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -807,13 +807,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※トップページに飛べない</t>
-    <rPh sb="8" eb="9">
-      <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>※月ごとに分けていない</t>
     <rPh sb="1" eb="2">
       <t>ツキ</t>
@@ -840,28 +833,6 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>シンチョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※診断結果ページに飛んでいない、一言診断結果のタイトル、ID指定</t>
-    <rPh sb="1" eb="5">
-      <t>シンダンケッカ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヒトコト</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>シンダン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>シテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1468,8 +1439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:K59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="E37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1596,7 +1567,7 @@
         <v>75</v>
       </c>
       <c r="H6" s="12">
-        <v>0.92</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
@@ -1619,10 +1590,7 @@
         <v>76</v>
       </c>
       <c r="H7" s="12">
-        <v>0.95</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>121</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.4">
@@ -1647,9 +1615,6 @@
       <c r="H8" s="12">
         <v>1</v>
       </c>
-      <c r="I8" t="s">
-        <v>117</v>
-      </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B9" s="4">
@@ -1721,7 +1686,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
@@ -1733,7 +1698,7 @@
       <c r="G12" s="4"/>
       <c r="H12" s="14">
         <f>SUM(H3:H11)/9</f>
-        <v>0.98555555555555563</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
@@ -2234,16 +2199,16 @@
         <v>73</v>
       </c>
       <c r="H35" s="12">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="I35" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="J35" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="K35" s="5" t="s">
         <v>124</v>
-      </c>
-      <c r="J35" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="K35" s="5" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="36" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.4">
@@ -2268,8 +2233,8 @@
       <c r="H36" s="12">
         <v>1</v>
       </c>
-      <c r="I36" s="5" t="s">
-        <v>128</v>
+      <c r="I36" s="21" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="37" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.4">
@@ -2342,7 +2307,7 @@
         <v>1</v>
       </c>
       <c r="I39" s="22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.4">
@@ -2368,10 +2333,10 @@
         <v>1</v>
       </c>
       <c r="I40" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J40" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.4">
@@ -2420,7 +2385,7 @@
         <v>1</v>
       </c>
       <c r="I42" s="22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.4">
@@ -2455,7 +2420,7 @@
       <c r="G44" s="4"/>
       <c r="H44" s="14">
         <f>SUM(H33:H43)/11</f>
-        <v>0.93181818181818177</v>
+        <v>0.94090909090909103</v>
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.4">
@@ -2562,7 +2527,7 @@
         <v>72</v>
       </c>
       <c r="H49" s="12">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.4">
@@ -2677,7 +2642,7 @@
         <v>77</v>
       </c>
       <c r="H54" s="12">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.4">
@@ -2729,16 +2694,16 @@
     <row r="57" spans="2:8" x14ac:dyDescent="0.4">
       <c r="H57" s="16">
         <f>SUM(H47:H56)/10</f>
-        <v>0.89500000000000013</v>
+        <v>0.91500000000000004</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.4">
       <c r="G59" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H59" s="17">
         <f>SUM(H12,H24,H32,H44,H57)/5</f>
-        <v>0.96247474747474748</v>
+        <v>0.97118181818181815</v>
       </c>
     </row>
   </sheetData>

--- a/documnets/ファイル構成一覧表_ヨッシーアイランド.xlsx
+++ b/documnets/ファイル構成一覧表_ヨッシーアイランド.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-3\documnets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC6CE99-E941-4ACD-8196-A13A863EB548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6307428-7FA0-4410-90D5-EFC32C7C500E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="126">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -872,13 +872,6 @@
   </si>
   <si>
     <t>7月にいけないように</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CSSの適用</t>
-    <rPh sb="4" eb="6">
-      <t>テキヨウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1439,8 +1432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:K59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" topLeftCell="E13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2234,7 +2227,7 @@
         <v>1</v>
       </c>
       <c r="I36" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.4">
@@ -2334,9 +2327,6 @@
       </c>
       <c r="I40" s="20" t="s">
         <v>117</v>
-      </c>
-      <c r="J40" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.4">

--- a/documnets/ファイル構成一覧表_ヨッシーアイランド.xlsx
+++ b/documnets/ファイル構成一覧表_ヨッシーアイランド.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-3\documnets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6307428-7FA0-4410-90D5-EFC32C7C500E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F57DCC-1372-4640-964C-6235A20F75F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="119">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -807,26 +807,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※月ごとに分けていない</t>
-    <rPh sb="1" eb="2">
-      <t>ツキ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※idを指定して表示していない</t>
-    <rPh sb="4" eb="6">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>全体進捗</t>
     <rPh sb="0" eb="2">
       <t>ゼンタイ</t>
@@ -837,48 +817,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※管理者用を作成</t>
-    <rPh sb="1" eb="5">
-      <t>カンリシャヨウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※吹き出しの中身をスクロール</t>
-    <rPh sb="1" eb="2">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ナカミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※カレンダーの曜日</t>
-    <rPh sb="7" eb="9">
-      <t>ヨウビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>日付の連携毎日のアイコン表示</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>7月にいけないように</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>↑アイコンの注釈</t>
-    <rPh sb="6" eb="8">
-      <t>チュウシャク</t>
-    </rPh>
+    <t>※7月にいけないように</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1430,10 +1369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:K59"/>
+  <dimension ref="B2:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1678,9 +1617,7 @@
       <c r="H11" s="12">
         <v>1</v>
       </c>
-      <c r="I11" s="22" t="s">
-        <v>118</v>
-      </c>
+      <c r="I11" s="22"/>
     </row>
     <row r="12" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B12" s="4"/>
@@ -2126,7 +2063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B33" s="4">
         <v>22</v>
       </c>
@@ -2149,7 +2086,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="34" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B34" s="4">
         <v>23</v>
       </c>
@@ -2172,7 +2109,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="35" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B35" s="4">
         <v>24</v>
       </c>
@@ -2194,17 +2131,12 @@
       <c r="H35" s="12">
         <v>0.95</v>
       </c>
-      <c r="I35" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="J35" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="K35" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I35" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="J35" s="21"/>
+    </row>
+    <row r="36" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B36" s="4">
         <v>25</v>
       </c>
@@ -2226,11 +2158,9 @@
       <c r="H36" s="12">
         <v>1</v>
       </c>
-      <c r="I36" s="21" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I36" s="21"/>
+    </row>
+    <row r="37" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B37" s="4">
         <v>26</v>
       </c>
@@ -2253,7 +2183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B38" s="4">
         <v>27</v>
       </c>
@@ -2277,7 +2207,7 @@
       </c>
       <c r="I38" s="5"/>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B39" s="4">
         <v>28</v>
       </c>
@@ -2299,11 +2229,9 @@
       <c r="H39" s="13">
         <v>1</v>
       </c>
-      <c r="I39" s="22" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="I39" s="22"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B40" s="4">
         <v>29</v>
       </c>
@@ -2325,11 +2253,9 @@
       <c r="H40" s="13">
         <v>1</v>
       </c>
-      <c r="I40" s="20" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="I40" s="20"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B41" s="4">
         <v>30</v>
       </c>
@@ -2352,7 +2278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B42" s="4">
         <v>31</v>
       </c>
@@ -2374,11 +2300,9 @@
       <c r="H42" s="13">
         <v>1</v>
       </c>
-      <c r="I42" s="22" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="I42" s="22"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B43" s="4">
         <v>32</v>
       </c>
@@ -2401,7 +2325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B44" s="1"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -2413,7 +2337,7 @@
         <v>0.94090909090909103</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B45" s="4">
         <v>33</v>
       </c>
@@ -2432,7 +2356,7 @@
       <c r="G45" s="4"/>
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B46" s="4">
         <v>34</v>
       </c>
@@ -2451,7 +2375,7 @@
       <c r="G46" s="4"/>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B47" s="4">
         <v>35</v>
       </c>
@@ -2474,7 +2398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B48" s="4">
         <v>36</v>
       </c>
@@ -2689,7 +2613,7 @@
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.4">
       <c r="G59" s="18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H59" s="17">
         <f>SUM(H12,H24,H32,H44,H57)/5</f>
@@ -2704,21 +2628,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -2889,32 +2798,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2931,4 +2830,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/documnets/ファイル構成一覧表_ヨッシーアイランド.xlsx
+++ b/documnets/ファイル構成一覧表_ヨッシーアイランド.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-3\documnets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F57DCC-1372-4640-964C-6235A20F75F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F5483B-4AEF-4A05-953C-CCCBA979FB11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="120">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -817,7 +817,23 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※7月にいけないように</t>
+    <t>※日付追加</t>
+    <rPh sb="1" eb="3">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※文字の大きさ</t>
+    <rPh sb="1" eb="3">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オオ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -939,7 +955,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -975,6 +991,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -984,7 +1011,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1052,6 +1079,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1371,8 +1401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="B52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2083,7 +2113,10 @@
         <v>77</v>
       </c>
       <c r="H33" s="12">
-        <v>0.8</v>
+        <v>0.9</v>
+      </c>
+      <c r="I33" s="23" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
@@ -2106,7 +2139,7 @@
         <v>77</v>
       </c>
       <c r="H34" s="12">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="35" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
@@ -2131,9 +2164,6 @@
       <c r="H35" s="12">
         <v>0.95</v>
       </c>
-      <c r="I35" s="5" t="s">
-        <v>118</v>
-      </c>
       <c r="J35" s="21"/>
     </row>
     <row r="36" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
@@ -2181,6 +2211,9 @@
       </c>
       <c r="H37" s="12">
         <v>1</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.4">
@@ -2334,7 +2367,7 @@
       <c r="G44" s="4"/>
       <c r="H44" s="14">
         <f>SUM(H33:H43)/11</f>
-        <v>0.94090909090909103</v>
+        <v>0.96818181818181825</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.4">
@@ -2418,7 +2451,7 @@
         <v>77</v>
       </c>
       <c r="H48" s="12">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.4">
@@ -2464,7 +2497,7 @@
         <v>75</v>
       </c>
       <c r="H50" s="12">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.4">
@@ -2533,7 +2566,7 @@
         <v>72</v>
       </c>
       <c r="H53" s="12">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.4">
@@ -2608,7 +2641,7 @@
     <row r="57" spans="2:8" x14ac:dyDescent="0.4">
       <c r="H57" s="16">
         <f>SUM(H47:H56)/10</f>
-        <v>0.91500000000000004</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.4">
@@ -2617,7 +2650,7 @@
       </c>
       <c r="H59" s="17">
         <f>SUM(H12,H24,H32,H44,H57)/5</f>
-        <v>0.97118181818181815</v>
+        <v>0.98363636363636364</v>
       </c>
     </row>
   </sheetData>
@@ -2628,6 +2661,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -2798,22 +2846,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2830,29 +2888,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/documnets/ファイル構成一覧表_ヨッシーアイランド.xlsx
+++ b/documnets/ファイル構成一覧表_ヨッシーアイランド.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-3\documnets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F5483B-4AEF-4A05-953C-CCCBA979FB11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC7C3BAA-D753-43B3-97D0-AD81274FBD4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="121">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -833,6 +833,13 @@
     </rPh>
     <rPh sb="4" eb="5">
       <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※三角の画像、注釈、土日</t>
+    <rPh sb="10" eb="12">
+      <t>ドニチ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1401,8 +1408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+    <sheetView tabSelected="1" topLeftCell="B19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2454,7 +2461,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B49" s="4">
         <v>37</v>
       </c>
@@ -2476,8 +2483,11 @@
       <c r="H49" s="12">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="I49" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B50" s="4">
         <v>38</v>
       </c>
@@ -2500,7 +2510,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B51" s="4">
         <v>39</v>
       </c>
@@ -2523,7 +2533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B52" s="4">
         <v>40</v>
       </c>
@@ -2546,7 +2556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B53" s="4">
         <v>41</v>
       </c>
@@ -2569,7 +2579,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B54" s="4">
         <v>42</v>
       </c>
@@ -2592,7 +2602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B55" s="4">
         <v>43</v>
       </c>
@@ -2615,7 +2625,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B56" s="4">
         <v>44</v>
       </c>
@@ -2638,13 +2648,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.4">
       <c r="H57" s="16">
         <f>SUM(H47:H56)/10</f>
         <v>0.95</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.4">
       <c r="G59" s="18" t="s">
         <v>117</v>
       </c>
@@ -2661,21 +2671,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -2846,32 +2841,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2888,4 +2873,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>